--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kangxh\Infra-as-code\deployment\201804280801\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allenk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6675E0-5185-407F-9568-64172CC5F460}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2252412F-2D60-444A-8C5D-D2418DA8E8F6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="14388" activeTab="4" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="14100" activeTab="1" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -538,253 +538,253 @@
     <t>ApplicationID</t>
   </si>
   <si>
+    <t>954ddad8-66d7-47a8-8f9f-1316152d9587</t>
+  </si>
+  <si>
+    <t>c4013028-2728-46b8-acf1-e397840c4344</t>
+  </si>
+  <si>
+    <t>AzureUSGovernment</t>
+  </si>
+  <si>
+    <t>AzureGermanCloud</t>
+  </si>
+  <si>
+    <t>mc-nsg-iac-web</t>
+  </si>
+  <si>
+    <t>mc-nsg-iac-db</t>
+  </si>
+  <si>
+    <t>Block_RDP_Internet</t>
+  </si>
+  <si>
+    <t>Block_SSH_Internet</t>
+  </si>
+  <si>
+    <t>Block_Internet_Outbound</t>
+  </si>
+  <si>
+    <t>sourceAddressPrefix</t>
+  </si>
+  <si>
+    <t>sourcePortRange</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>destinationAddressPrefix</t>
+  </si>
+  <si>
+    <t>destinationPortRange</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>NSG Address Prefix</t>
+  </si>
+  <si>
+    <t>VirtualNetwork</t>
+  </si>
+  <si>
+    <t>AzureLoadBalancer</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Inbound</t>
+  </si>
+  <si>
+    <t>Outbound</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Allow</t>
+  </si>
+  <si>
+    <t>Deny</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Allow_HTTPS_Internet</t>
+  </si>
+  <si>
+    <t>Allow_HTTP_Internet</t>
+  </si>
+  <si>
+    <t>Block_Web_Subnet</t>
+  </si>
+  <si>
+    <t>Block_APP_Subnet</t>
+  </si>
+  <si>
+    <t>Allow_DB_Port</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>securityRules</t>
+  </si>
+  <si>
+    <t>virtualNetworks</t>
+  </si>
+  <si>
+    <t>nsg need to be create with at least one rule</t>
+  </si>
+  <si>
+    <t>subnets</t>
+  </si>
+  <si>
+    <t>mysqldb</t>
+  </si>
+  <si>
+    <t>sqldb, mysqldb</t>
+  </si>
+  <si>
+    <t>10.1.1.0/24</t>
+  </si>
+  <si>
+    <t>10.1.2.0/24</t>
+  </si>
+  <si>
+    <t>10.1.3.0/24</t>
+  </si>
+  <si>
+    <t>10.1.4.0/24</t>
+  </si>
+  <si>
+    <t>10.1.5.0/24</t>
+  </si>
+  <si>
+    <t>10.1.6.0/24</t>
+  </si>
+  <si>
+    <t>10.1.7.0/24</t>
+  </si>
+  <si>
+    <t>10.1.8.0/24</t>
+  </si>
+  <si>
+    <t>10.1.100.0/24</t>
+  </si>
+  <si>
+    <t>10.1.200.0/24</t>
+  </si>
+  <si>
+    <t>10.1.0.0/16</t>
+  </si>
+  <si>
+    <t>db services</t>
+  </si>
+  <si>
+    <t>codePath</t>
+  </si>
+  <si>
+    <t>C:\kangxh\Infra-as-code\code</t>
+  </si>
+  <si>
+    <t>/data/infra-as-code/code</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>/data/infra-as-code/mc-allenk-automation-spn.pem</t>
+  </si>
+  <si>
+    <t>certPath</t>
+  </si>
+  <si>
+    <t>/data/infra-as-code/</t>
+  </si>
+  <si>
+    <t>C:\kangxh\AzureLabs\Certs</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>C:\kangxh\AzureLabs\Certs\mc-allenk-automation-spn.pem</t>
+  </si>
+  <si>
+    <t>mc-vnet-iac-uat</t>
+  </si>
+  <si>
+    <t>10.1.0.0/16, 10.2.0.0/16</t>
+  </si>
+  <si>
+    <t>addressPrefixes</t>
+  </si>
+  <si>
+    <t>dnsServers</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>10.3.0.0/16</t>
+  </si>
+  <si>
+    <t>10.3.1.0/24</t>
+  </si>
+  <si>
+    <t>mc-vnet-iac-dev</t>
+  </si>
+  <si>
+    <t>mc-vnet-iac-prod</t>
+  </si>
+  <si>
+    <t>mc-nsg-iac-firewall</t>
+  </si>
+  <si>
+    <t>mc-udr-iac-dev</t>
+  </si>
+  <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t>mc-udr-dev-to-uat</t>
+  </si>
+  <si>
+    <t>mc-udr-dev-to-prod</t>
+  </si>
+  <si>
+    <t>mc-udr-iac-prod</t>
+  </si>
+  <si>
+    <t>web, app, sqldb</t>
+  </si>
+  <si>
     <t>47a639b4-f614-4e56-a2bf-6979f64ce5cf</t>
-  </si>
-  <si>
-    <t>954ddad8-66d7-47a8-8f9f-1316152d9587</t>
-  </si>
-  <si>
-    <t>c4013028-2728-46b8-acf1-e397840c4344</t>
-  </si>
-  <si>
-    <t>AzureUSGovernment</t>
-  </si>
-  <si>
-    <t>AzureGermanCloud</t>
-  </si>
-  <si>
-    <t>mc-nsg-iac-web</t>
-  </si>
-  <si>
-    <t>mc-nsg-iac-db</t>
-  </si>
-  <si>
-    <t>Block_RDP_Internet</t>
-  </si>
-  <si>
-    <t>Block_SSH_Internet</t>
-  </si>
-  <si>
-    <t>Block_Internet_Outbound</t>
-  </si>
-  <si>
-    <t>sourceAddressPrefix</t>
-  </si>
-  <si>
-    <t>sourcePortRange</t>
-  </si>
-  <si>
-    <t>protocol</t>
-  </si>
-  <si>
-    <t>destinationAddressPrefix</t>
-  </si>
-  <si>
-    <t>destinationPortRange</t>
-  </si>
-  <si>
-    <t>access</t>
-  </si>
-  <si>
-    <t>direction</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>NSG Address Prefix</t>
-  </si>
-  <si>
-    <t>VirtualNetwork</t>
-  </si>
-  <si>
-    <t>AzureLoadBalancer</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>Inbound</t>
-  </si>
-  <si>
-    <t>Outbound</t>
-  </si>
-  <si>
-    <t>Protocol</t>
-  </si>
-  <si>
-    <t>TCP</t>
-  </si>
-  <si>
-    <t>UDP</t>
-  </si>
-  <si>
-    <t>Access</t>
-  </si>
-  <si>
-    <t>Allow</t>
-  </si>
-  <si>
-    <t>Deny</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Allow_HTTPS_Internet</t>
-  </si>
-  <si>
-    <t>Allow_HTTP_Internet</t>
-  </si>
-  <si>
-    <t>Block_Web_Subnet</t>
-  </si>
-  <si>
-    <t>Block_APP_Subnet</t>
-  </si>
-  <si>
-    <t>Allow_DB_Port</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>securityRules</t>
-  </si>
-  <si>
-    <t>virtualNetworks</t>
-  </si>
-  <si>
-    <t>nsg need to be create with at least one rule</t>
-  </si>
-  <si>
-    <t>subnets</t>
-  </si>
-  <si>
-    <t>mysqldb</t>
-  </si>
-  <si>
-    <t>sqldb, mysqldb</t>
-  </si>
-  <si>
-    <t>10.1.1.0/24</t>
-  </si>
-  <si>
-    <t>10.1.2.0/24</t>
-  </si>
-  <si>
-    <t>10.1.3.0/24</t>
-  </si>
-  <si>
-    <t>10.1.4.0/24</t>
-  </si>
-  <si>
-    <t>10.1.5.0/24</t>
-  </si>
-  <si>
-    <t>10.1.6.0/24</t>
-  </si>
-  <si>
-    <t>10.1.7.0/24</t>
-  </si>
-  <si>
-    <t>10.1.8.0/24</t>
-  </si>
-  <si>
-    <t>10.1.100.0/24</t>
-  </si>
-  <si>
-    <t>10.1.200.0/24</t>
-  </si>
-  <si>
-    <t>10.1.0.0/16</t>
-  </si>
-  <si>
-    <t>db services</t>
-  </si>
-  <si>
-    <t>codePath</t>
-  </si>
-  <si>
-    <t>C:\kangxh\Infra-as-code\code</t>
-  </si>
-  <si>
-    <t>/data/infra-as-code/code</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>/data/infra-as-code/mc-allenk-automation-spn.pem</t>
-  </si>
-  <si>
-    <t>certPath</t>
-  </si>
-  <si>
-    <t>/data/infra-as-code/</t>
-  </si>
-  <si>
-    <t>C:\kangxh\AzureLabs\Certs</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>C:\kangxh\AzureLabs\Certs\mc-allenk-automation-spn.pem</t>
-  </si>
-  <si>
-    <t>mc-vnet-iac-uat</t>
-  </si>
-  <si>
-    <t>10.1.0.0/16, 10.2.0.0/16</t>
-  </si>
-  <si>
-    <t>addressPrefixes</t>
-  </si>
-  <si>
-    <t>dnsServers</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>10.3.0.0/16</t>
-  </si>
-  <si>
-    <t>10.3.1.0/24</t>
-  </si>
-  <si>
-    <t>mc-vnet-iac-dev</t>
-  </si>
-  <si>
-    <t>mc-vnet-iac-prod</t>
-  </si>
-  <si>
-    <t>mc-nsg-iac-firewall</t>
-  </si>
-  <si>
-    <t>mc-udr-iac-dev</t>
-  </si>
-  <si>
-    <t>rules</t>
-  </si>
-  <si>
-    <t>mc-udr-dev-to-uat</t>
-  </si>
-  <si>
-    <t>mc-udr-dev-to-prod</t>
-  </si>
-  <si>
-    <t>mc-udr-iac-prod</t>
-  </si>
-  <si>
-    <t>web, app, sqldb</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1623,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89DD4EF-EA99-49BE-99A4-8354913F615F}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1641,13 +1641,13 @@
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1">
       <c r="A1" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>162</v>
@@ -1667,54 +1667,54 @@
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>163</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="12" customFormat="1">
       <c r="A3" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>163</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="12" customFormat="1">
@@ -1801,7 +1801,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1883,7 +1883,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>44</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>39</v>
@@ -1961,23 +1961,23 @@
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1">
       <c r="A4" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:18" s="12" customFormat="1">
       <c r="A5" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:18" s="12" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>4</v>
@@ -1986,10 +1986,10 @@
     </row>
     <row r="7" spans="1:18" s="12" customFormat="1">
       <c r="C7" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>146</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="8" spans="1:18" s="12" customFormat="1">
       <c r="C8" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>5</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="9" spans="1:18" s="12" customFormat="1">
       <c r="C9" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>6</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="10" spans="1:18" s="12" customFormat="1">
       <c r="C10" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>7</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="11" spans="1:18" s="12" customFormat="1">
       <c r="C11" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>125</v>
@@ -2041,10 +2041,10 @@
     </row>
     <row r="12" spans="1:18" s="12" customFormat="1">
       <c r="C12" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>19</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="13" spans="1:18" s="12" customFormat="1">
       <c r="C13" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>10</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="14" spans="1:18" s="12" customFormat="1">
       <c r="C14" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>11</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="15" spans="1:18" s="12" customFormat="1">
       <c r="C15" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>12</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="C16" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>13</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="C17" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>14</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>39</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="12"/>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="3"/>
@@ -2200,10 +2200,10 @@
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" s="3"/>
     </row>
@@ -2211,10 +2211,10 @@
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>146</v>
@@ -2230,13 +2230,13 @@
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
@@ -2249,13 +2249,13 @@
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
@@ -2268,13 +2268,13 @@
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -2287,13 +2287,13 @@
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>125</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -2306,13 +2306,13 @@
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -2325,13 +2325,13 @@
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -2344,13 +2344,13 @@
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
@@ -2363,13 +2363,13 @@
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -2382,13 +2382,13 @@
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -2401,13 +2401,13 @@
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="42" spans="1:11" s="12" customFormat="1">
       <c r="A42" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>39</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="12"/>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="3"/>
@@ -2526,10 +2526,10 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="12"/>
@@ -2545,10 +2545,10 @@
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>146</v>
@@ -2564,13 +2564,13 @@
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -2676,7 +2676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CB9A08-700A-4F46-9866-C465156BD9E9}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2705,7 +2705,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>44</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>39</v>
@@ -2791,228 +2791,228 @@
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1">
       <c r="A4" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:18">
       <c r="C5" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="C6" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I6" s="9">
         <v>3389</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="C7" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I7" s="9">
         <v>22</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K7" s="9">
         <v>210</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="C8" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>92</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K8" s="9">
         <v>200</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="C9" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I9" s="9">
         <v>443</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K9" s="9">
         <v>100</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="C10" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I10" s="9">
         <v>80</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K10" s="9">
         <v>110</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="M11" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N11" s="15" t="s">
         <v>42</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="M12" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N12" s="14" t="s">
         <v>134</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P12" s="14" t="s">
         <v>6</v>
@@ -3020,13 +3020,13 @@
     </row>
     <row r="13" spans="1:18" s="12" customFormat="1">
       <c r="M13" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>134</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>6</v>
@@ -3067,171 +3067,171 @@
     </row>
     <row r="16" spans="1:18" s="12" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:16">
       <c r="C17" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E17" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="G17" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="H17" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="I17" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="J17" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="K17" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="C18" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I18" s="9">
         <v>1433</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K18" s="9">
         <v>100</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="C19" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K19" s="9">
         <v>200</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="C20" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K20" s="9">
         <v>210</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="C21" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>92</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K21" s="9">
         <v>200</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -3248,44 +3248,44 @@
     </row>
     <row r="23" spans="1:16">
       <c r="M23" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>42</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="M24" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>134</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="M25" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>134</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -3333,10 +3333,10 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="12"/>
@@ -3356,34 +3356,34 @@
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="G29" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="H29" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="I29" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="J29" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="K29" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="L29" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>182</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -3393,34 +3393,34 @@
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I30" s="9">
         <v>1433</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K30" s="9">
         <v>100</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
@@ -3439,16 +3439,16 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N31" s="15" t="s">
         <v>42</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3464,13 +3464,13 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N32" s="14" t="s">
         <v>134</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P32" s="14" t="s">
         <v>5</v>
@@ -3547,7 +3547,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>44</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>39</v>
@@ -3626,20 +3626,20 @@
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1">
       <c r="A4" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:18" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="13"/>
       <c r="C5" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>146</v>
@@ -3656,13 +3656,13 @@
     </row>
     <row r="6" spans="1:18">
       <c r="C6" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>100</v>
@@ -3676,13 +3676,13 @@
     </row>
     <row r="7" spans="1:18">
       <c r="C7" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>100</v>
@@ -3696,13 +3696,13 @@
     </row>
     <row r="8" spans="1:18">
       <c r="I8" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>42</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>148</v>
@@ -3710,16 +3710,16 @@
     </row>
     <row r="9" spans="1:18">
       <c r="I9" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>134</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3750,7 +3750,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>39</v>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="12"/>
@@ -3787,10 +3787,10 @@
       <c r="A15" s="13"/>
       <c r="B15" s="12"/>
       <c r="C15" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>146</v>
@@ -3813,13 +3813,13 @@
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>145</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>100</v>
@@ -3844,13 +3844,13 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>42</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L17" s="15" t="s">
         <v>148</v>
@@ -3865,13 +3865,13 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>134</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>5</v>
@@ -4040,7 +4040,7 @@
         <v>134</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>6</v>
@@ -4088,7 +4088,7 @@
         <v>134</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>7</v>
@@ -4423,16 +4423,16 @@
         <v>162</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4447,16 +4447,16 @@
         <v>163</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4477,16 +4477,16 @@
         <v>164</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4502,13 +4502,13 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4524,10 +4524,10 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:10">

--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allenk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2252412F-2D60-444A-8C5D-D2418DA8E8F6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2744315-A302-4E23-9FC8-345F07C885B0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="14100" activeTab="1" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="14100" activeTab="7" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="247">
   <si>
     <t>ResourceGroup</t>
   </si>
@@ -454,9 +454,6 @@
     <t>mc-rg-iac-db</t>
   </si>
   <si>
-    <t>mc-vnet-iac</t>
-  </si>
-  <si>
     <t>mc-vm-iacweb</t>
   </si>
   <si>
@@ -512,9 +509,6 @@
   </si>
   <si>
     <t>VirtualAppliance</t>
-  </si>
-  <si>
-    <t>mc-rg-iac</t>
   </si>
   <si>
     <t>SubscriptionID</t>
@@ -1562,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1570,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1578,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1586,7 +1580,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1623,7 +1617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89DD4EF-EA99-49BE-99A4-8354913F615F}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1641,80 +1635,80 @@
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1">
       <c r="A1" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F1" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="H1" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>231</v>
-      </c>
       <c r="H2" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="12" customFormat="1">
       <c r="A3" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="12" customFormat="1">
@@ -1801,7 +1795,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1883,7 +1877,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>44</v>
@@ -1953,7 +1947,7 @@
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>39</v>
@@ -1961,23 +1955,23 @@
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1">
       <c r="A4" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:18" s="12" customFormat="1">
       <c r="A5" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:18" s="12" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>4</v>
@@ -1986,18 +1980,18 @@
     </row>
     <row r="7" spans="1:18" s="12" customFormat="1">
       <c r="C7" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="12" customFormat="1">
       <c r="C8" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>5</v>
@@ -2008,7 +2002,7 @@
     </row>
     <row r="9" spans="1:18" s="12" customFormat="1">
       <c r="C9" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>6</v>
@@ -2019,7 +2013,7 @@
     </row>
     <row r="10" spans="1:18" s="12" customFormat="1">
       <c r="C10" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>7</v>
@@ -2030,7 +2024,7 @@
     </row>
     <row r="11" spans="1:18" s="12" customFormat="1">
       <c r="C11" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>125</v>
@@ -2041,10 +2035,10 @@
     </row>
     <row r="12" spans="1:18" s="12" customFormat="1">
       <c r="C12" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>19</v>
@@ -2052,7 +2046,7 @@
     </row>
     <row r="13" spans="1:18" s="12" customFormat="1">
       <c r="C13" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>10</v>
@@ -2063,7 +2057,7 @@
     </row>
     <row r="14" spans="1:18" s="12" customFormat="1">
       <c r="C14" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>11</v>
@@ -2074,7 +2068,7 @@
     </row>
     <row r="15" spans="1:18" s="12" customFormat="1">
       <c r="C15" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>12</v>
@@ -2085,7 +2079,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="C16" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>13</v>
@@ -2096,7 +2090,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="C17" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>14</v>
@@ -2160,7 +2154,7 @@
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>39</v>
@@ -2168,10 +2162,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="12"/>
@@ -2185,7 +2179,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="3"/>
@@ -2200,10 +2194,10 @@
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C26" s="3"/>
     </row>
@@ -2211,13 +2205,13 @@
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -2230,13 +2224,13 @@
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
@@ -2249,13 +2243,13 @@
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
@@ -2268,13 +2262,13 @@
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -2287,13 +2281,13 @@
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>125</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -2306,13 +2300,13 @@
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -2325,13 +2319,13 @@
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -2344,13 +2338,13 @@
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
@@ -2363,13 +2357,13 @@
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -2382,13 +2376,13 @@
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -2401,13 +2395,13 @@
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -2486,7 +2480,7 @@
     </row>
     <row r="42" spans="1:11" s="12" customFormat="1">
       <c r="A42" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>39</v>
@@ -2494,10 +2488,10 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="12"/>
@@ -2511,7 +2505,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="3"/>
@@ -2526,10 +2520,10 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="12"/>
@@ -2545,13 +2539,13 @@
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -2564,13 +2558,13 @@
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -2705,7 +2699,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>44</v>
@@ -2782,7 +2776,7 @@
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>39</v>
@@ -2791,228 +2785,228 @@
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1">
       <c r="A4" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:18">
       <c r="C5" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="C6" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I6" s="9">
         <v>3389</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="C7" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I7" s="9">
         <v>22</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K7" s="9">
         <v>210</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="C8" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>92</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K8" s="9">
         <v>200</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="C9" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I9" s="9">
         <v>443</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K9" s="9">
         <v>100</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="C10" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I10" s="9">
         <v>80</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K10" s="9">
         <v>110</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="M11" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N11" s="15" t="s">
         <v>42</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="M12" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N12" s="14" t="s">
         <v>134</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P12" s="14" t="s">
         <v>6</v>
@@ -3020,13 +3014,13 @@
     </row>
     <row r="13" spans="1:18" s="12" customFormat="1">
       <c r="M13" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>134</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>6</v>
@@ -3067,171 +3061,171 @@
     </row>
     <row r="16" spans="1:18" s="12" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:16">
       <c r="C17" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E17" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="H17" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="I17" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="J17" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="K17" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="C18" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>186</v>
-      </c>
       <c r="G18" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I18" s="9">
         <v>1433</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K18" s="9">
         <v>100</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="C19" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H19" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>186</v>
-      </c>
       <c r="J19" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K19" s="9">
         <v>200</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="C20" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H20" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>186</v>
-      </c>
       <c r="J20" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K20" s="9">
         <v>210</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="C21" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>92</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K21" s="9">
         <v>200</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -3248,44 +3242,44 @@
     </row>
     <row r="23" spans="1:16">
       <c r="M23" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>42</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="M24" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>134</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="M25" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>134</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -3333,10 +3327,10 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="12"/>
@@ -3356,34 +3350,34 @@
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="H29" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="I29" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="J29" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="K29" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="L29" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>181</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -3393,34 +3387,34 @@
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E30" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>186</v>
-      </c>
       <c r="G30" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I30" s="9">
         <v>1433</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K30" s="9">
         <v>100</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
@@ -3439,16 +3433,16 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N31" s="15" t="s">
         <v>42</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3464,13 +3458,13 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N32" s="14" t="s">
         <v>134</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P32" s="14" t="s">
         <v>5</v>
@@ -3547,7 +3541,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>44</v>
@@ -3618,7 +3612,7 @@
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>39</v>
@@ -3626,29 +3620,29 @@
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1">
       <c r="A4" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:18" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="13"/>
       <c r="C5" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>2</v>
@@ -3656,13 +3650,13 @@
     </row>
     <row r="6" spans="1:18">
       <c r="C6" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>244</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>100</v>
@@ -3676,13 +3670,13 @@
     </row>
     <row r="7" spans="1:18">
       <c r="C7" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>100</v>
@@ -3696,30 +3690,30 @@
     </row>
     <row r="8" spans="1:18">
       <c r="I8" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>42</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="I9" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>134</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3750,7 +3744,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>39</v>
@@ -3767,10 +3761,10 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="12"/>
@@ -3787,19 +3781,19 @@
       <c r="A15" s="13"/>
       <c r="B15" s="12"/>
       <c r="C15" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>2</v>
@@ -3813,13 +3807,13 @@
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>100</v>
@@ -3844,16 +3838,16 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>42</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3865,13 +3859,13 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>134</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>5</v>
@@ -4015,7 +4009,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="8" t="s">
@@ -4025,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>31</v>
@@ -4034,13 +4028,13 @@
         <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>6</v>
@@ -4063,7 +4057,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="8" t="s">
@@ -4073,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>32</v>
@@ -4082,13 +4076,13 @@
         <v>90</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>134</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>7</v>
@@ -4168,8 +4162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FE7611-FF07-4817-8846-44273D8303DC}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4262,7 +4256,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -4292,7 +4286,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>28</v>
@@ -4308,7 +4302,7 @@
         <v>63</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="8">
         <v>80</v>
@@ -4326,10 +4320,10 @@
         <v>61</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>138</v>
+        <v>237</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>12</v>
@@ -4420,19 +4414,19 @@
         <v>99</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4444,19 +4438,19 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4464,7 +4458,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>5</v>
@@ -4474,19 +4468,19 @@
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4494,7 +4488,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>6</v>
@@ -4502,13 +4496,13 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4516,7 +4510,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>7</v>
@@ -4524,10 +4518,10 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4545,7 +4539,7 @@
     <row r="7" spans="1:10">
       <c r="A7" s="14"/>
       <c r="B7" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>9</v>

--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allenk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kangxh\Infra-as-code\deployment\2099\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2744315-A302-4E23-9FC8-345F07C885B0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F818639-6D4B-4F9F-BEF3-F8722A55F972}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="14100" activeTab="7" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="14112" activeTab="9" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
     <sheet name="Environment" sheetId="10" r:id="rId2"/>
     <sheet name="RG" sheetId="8" r:id="rId3"/>
-    <sheet name="vNet" sheetId="11" r:id="rId4"/>
-    <sheet name="NSG" sheetId="6" r:id="rId5"/>
-    <sheet name="UDR" sheetId="7" r:id="rId6"/>
-    <sheet name="VM" sheetId="3" r:id="rId7"/>
-    <sheet name="ServiceFabric" sheetId="2" r:id="rId8"/>
-    <sheet name="Properties List" sheetId="5" r:id="rId9"/>
+    <sheet name="KeyVault" sheetId="14" r:id="rId4"/>
+    <sheet name="vNet" sheetId="11" r:id="rId5"/>
+    <sheet name="NSG" sheetId="6" r:id="rId6"/>
+    <sheet name="UDR" sheetId="7" r:id="rId7"/>
+    <sheet name="VM" sheetId="3" r:id="rId8"/>
+    <sheet name="ServiceFabric" sheetId="2" r:id="rId9"/>
+    <sheet name="MySQL" sheetId="12" r:id="rId10"/>
+    <sheet name="SQL" sheetId="13" r:id="rId11"/>
+    <sheet name="Properties List" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="319">
   <si>
     <t>ResourceGroup</t>
   </si>
@@ -779,13 +782,248 @@
   </si>
   <si>
     <t>47a639b4-f614-4e56-a2bf-6979f64ce5cf</t>
+  </si>
+  <si>
+    <t>Resource Group</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server Name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sku</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tier</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Password</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Database</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encryption</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log&amp;Audit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replication</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqladmin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password_01!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL_Latin1_General_CP1_CI_AS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enabled</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>secrets</t>
+  </si>
+  <si>
+    <t>secretValue</t>
+  </si>
+  <si>
+    <t>vmpassword</t>
+  </si>
+  <si>
+    <t>dbpassword</t>
+  </si>
+  <si>
+    <t>vmsspassword</t>
+  </si>
+  <si>
+    <t>enabledForDeployment</t>
+  </si>
+  <si>
+    <t>enabledForTemplateDeployment</t>
+  </si>
+  <si>
+    <t>enableVaultForVolumeEncryption</t>
+  </si>
+  <si>
+    <t>secretsName</t>
+  </si>
+  <si>
+    <t>KeyVaultName</t>
+  </si>
+  <si>
+    <t>accessPolicies</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>certificates</t>
+  </si>
+  <si>
+    <t>objectName</t>
+  </si>
+  <si>
+    <t>mc-kv-iac-dev</t>
+  </si>
+  <si>
+    <t>mc-kv-iac-uat</t>
+  </si>
+  <si>
+    <t>d17b5bec-7daf-4ab0-b4e1-a17eef0fffa6</t>
+  </si>
+  <si>
+    <t>allenkdemo</t>
+  </si>
+  <si>
+    <t>0764cb57-add0-4f55-855d-3d700cc2d37b</t>
+  </si>
+  <si>
+    <t>allenk_automation</t>
+  </si>
+  <si>
+    <t>objectid</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Get, List, Update, Create, Import, Delete, Recover, Backup, Restore</t>
+  </si>
+  <si>
+    <t>Get, List, Set, Delete, Recover, Backup, Restore</t>
+  </si>
+  <si>
+    <t>Get, List, Update, Create, Import, Delete, Recover, ManageContacts, ManageIssuers, GetIssuers, ListIssuers, SetIssuers, DeleteIssuers</t>
+  </si>
+  <si>
+    <t>New Secret</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>newValue</t>
+  </si>
+  <si>
+    <t>dc8b19b4-4dfa-49e2-96c2-11672fc39670</t>
+  </si>
+  <si>
+    <t>mc-sql-iac-server</t>
+  </si>
+  <si>
+    <t>mc-sql-iac-db-01</t>
+  </si>
+  <si>
+    <t>mc-sql-iac-db-02</t>
+  </si>
+  <si>
+    <t>mc-sql-iac-db-03</t>
+  </si>
+  <si>
+    <t>MS1</t>
+  </si>
+  <si>
+    <t>sqladmin</t>
+  </si>
+  <si>
+    <t>Password_01!</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>utf8</t>
+  </si>
+  <si>
+    <t>utf8_general_ci</t>
+  </si>
+  <si>
+    <t>Resource Group</t>
+  </si>
+  <si>
+    <t>Server Name</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>User Password</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>charset</t>
+  </si>
+  <si>
+    <t>Collation</t>
+  </si>
+  <si>
+    <t>Allow Azure internal Access</t>
+  </si>
+  <si>
+    <t>KeyVault Name</t>
+  </si>
+  <si>
+    <t>mc-mysql-iac-svr</t>
+  </si>
+  <si>
+    <t>mc-mysql-iac-db1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,8 +1099,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,6 +1131,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -993,7 +1243,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1040,6 +1290,22 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Calculation" xfId="6" builtinId="22"/>
@@ -1366,7 +1632,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1608,6 +1874,570 @@
       <c r="B33" s="14"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="hfamaOFTI2Vl8o9NecSLceb5UoEHPTgA0xlCIqn0b4IlZZyeAYuWUflKozsp66zy5N4WRpg98S5xxd9lRkbyJA==" saltValue="Kwdv4UFKVPR4wjiBvZr4Aw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD3BF6B-20D9-4585-8ED8-1463BB7E1471}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="35">
+        <v>5.7</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="35">
+        <v>5.7</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="K3" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1487A2A8-6513-49DE-8403-DD6A0CA5AD44}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="31.88671875" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="29.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="12" customFormat="1">
+      <c r="A3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="12" customFormat="1">
+      <c r="A4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6043D2-FAF4-4CC6-BCA2-883A8FA8E76B}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="14"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1615,16 +2445,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89DD4EF-EA99-49BE-99A4-8354913F615F}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="12"/>
-    <col min="2" max="2" width="45.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.5546875" customWidth="1"/>
     <col min="4" max="4" width="36.77734375" customWidth="1"/>
     <col min="5" max="5" width="40.109375" customWidth="1"/>
@@ -1718,11 +2548,14 @@
     </row>
     <row r="5" spans="1:8" s="12" customFormat="1"/>
     <row r="8" spans="1:8" ht="15.6" customHeight="1"/>
-    <row r="11" spans="1:8" ht="16.2" customHeight="1"/>
-    <row r="17" spans="2:2">
-      <c r="B17" s="14"/>
+    <row r="10" spans="1:8" ht="16.2" customHeight="1">
+      <c r="B10" s="31"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="14"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="r3iVsf0jc5kaZXgoh2KcTOi1lRQvYnYTdBxDMX98VdB3mjhaHSZMWDcw+pvQDyPkj4TUiNP/AJAfFtWdxIkyuQ==" saltValue="HHm6Cuu5JIXQ7wJ+0neqhg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1733,7 +2566,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1826,6 +2659,7 @@
     <row r="15" spans="1:3" s="12" customFormat="1"/>
     <row r="19" s="12" customFormat="1"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="RV26gXkHXaCWcuFYpK2f+xa4klsA5/Nir4g3jDsdwQohEarITnmT0ZzIi3xYXpupx1bkBLVAMWiJwbzcz1cKQQ==" saltValue="hg/n9dWlygaSkhxgVIq4ng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{1885BC1C-48C1-4423-ABA0-034E31BD2799}">
       <formula1>7</formula1>
@@ -1850,11 +2684,461 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65437506-71EE-4623-BA3E-4F0661C58DED}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" s="12" customFormat="1">
+      <c r="A5" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="158.4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="12" customFormat="1">
+      <c r="C10" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="12" customFormat="1">
+      <c r="C11" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="I12" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="I13" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="I14" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="I15" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1">
+      <c r="C26" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="I27" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{81D21CCE-8794-4E9E-946E-54972A4CC429}">
+          <x14:formula1>
+            <xm:f>'Properties List'!$K$2:$K$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K26:K1048576 L25 K1:K24</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66F6C2E-1DAB-4048-8E28-1F02F50FBD7B}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2625,6 +3909,7 @@
       <c r="K50" s="14"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="ad9ISE/lliDoDTcCeHM3cfwelz+sRyAH8XKSGgeo2LqI3uqcw1HB2x58vpEPoAEANyd5RO+i2a/StUEApuzTww==" saltValue="HN1ebXfyLbZeBZSJPay3WQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{DCB9B116-6DD5-4D85-AD2F-D28CB64FC483}">
       <formula1>100</formula1>
@@ -2666,12 +3951,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CB9A08-700A-4F46-9866-C465156BD9E9}">
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3471,6 +4756,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="utuPbTlJdNzsB2RWIchXIQ80p6NBRM33RslPlAohrbLuAA7/5O59q51QuxDC5rQ+SFE4AcpwX6sKNJ34XTigpA==" saltValue="NcD0tkcabQ8gv8VPVHWWzw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 I23:I24 K16:K22 K5:K13 I33:I1048576 I31:I32 K28:K30" xr:uid="{13621260-432B-4BFD-8DC6-F5BBC64B2C4E}">
       <formula1>100</formula1>
@@ -3512,7 +4798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71DACD7-923E-41EE-A168-21177D0CC449}">
   <dimension ref="A1:R18"/>
   <sheetViews>
@@ -3872,6 +5158,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="miE5q3UGrzeDsPpl58UFyOLA+D35GtPoIctKOU32nFb+VIi3P295f6U+wq08In+c1Rj/9+c2h2FWoA3DUTLZHQ==" saltValue="/nVrZF77kxI/ffGLffDgww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{A2EDAB48-E67F-4241-8D54-D67A9847155E}">
       <formula1>100</formula1>
@@ -3919,12 +5206,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68429E91-ED41-4E27-A447-875D29420820}">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4126,6 +5413,7 @@
       <c r="T4" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="07CFs5zcmlqdV6sLVYE+AZlD2j3k9aYC1gmoUYk7ajtmURfUoGFrDbdRHmY2pIUfG7JD+akDu60/LH7dJOGT+Q==" saltValue="Fl2H+3fkIVVgcE6OCtZjpg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{480092A1-4AD8-4EE9-AD19-B02A5964B82A}"/>
   </hyperlinks>
@@ -4158,12 +5446,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FE7611-FF07-4817-8846-44273D8303DC}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4372,240 +5660,7 @@
       <c r="D10" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6043D2-FAF4-4CC6-BCA2-883A8FA8E76B}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="14"/>
-    </row>
-  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="E6FNaIXP4hyxBIP/D1WjXCbyzEggUwKIFWlxvoUuiP1ATOEO4Mplrq07EAgq5IEzHyD5hZjKP67WEu11mGNLbw==" saltValue="OHV/E8CRg/BzAbSN+sIp2w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kangxh\Infra-as-code\deployment\2099\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F818639-6D4B-4F9F-BEF3-F8722A55F972}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2C6416-CA55-4A29-AC59-A938BFD011B7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="14112" activeTab="9" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="14112" activeTab="3" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -1884,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD3BF6B-20D9-4585-8ED8-1463BB7E1471}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2687,8 +2687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65437506-71EE-4623-BA3E-4F0661C58DED}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3042,8 +3042,8 @@
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1">
-      <c r="C26" s="33" t="s">
-        <v>280</v>
+      <c r="C26" s="36" t="s">
+        <v>281</v>
       </c>
       <c r="D26" s="33" t="s">
         <v>285</v>

--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kangxh\Infra-as-code\deployment\2099\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2C6416-CA55-4A29-AC59-A938BFD011B7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09403DAB-A134-42EC-B767-64A3648FCB6B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="14112" activeTab="3" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="321">
   <si>
     <t>ResourceGroup</t>
   </si>
@@ -808,10 +808,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>User Password</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Database</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -844,10 +840,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Password_01!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>SQL_Latin1_General_CP1_CI_AS</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1017,6 +1009,18 @@
   </si>
   <si>
     <t>mc-mysql-iac-db1</t>
+  </si>
+  <si>
+    <t>KeyVaultRG</t>
+  </si>
+  <si>
+    <t>KeyVault</t>
+  </si>
+  <si>
+    <t>Secret</t>
+  </si>
+  <si>
+    <t>0fef2d1d-7012-4bd2-bd2a-0d6aa8a52247</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1110,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1131,12 +1135,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1290,7 +1288,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="9" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1306,6 +1303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Calculation" xfId="6" builtinId="22"/>
@@ -1904,111 +1902,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="F1" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="34">
+        <v>5.7</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="K1" s="36" t="s">
+      <c r="L2" s="34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="C3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="34">
+        <v>5.7</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="E2" s="35">
-        <v>5.7</v>
-      </c>
-      <c r="F2" s="35" t="s">
+      <c r="I3" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K3" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="34" t="s">
         <v>301</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="E3" s="35">
-        <v>5.7</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="K3" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2019,10 +2017,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1487A2A8-6513-49DE-8403-DD6A0CA5AD44}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2032,15 +2030,16 @@
     <col min="3" max="3" width="17.21875" customWidth="1"/>
     <col min="4" max="4" width="8.109375" customWidth="1"/>
     <col min="5" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="31.88671875" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="29.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" style="34" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="31.88671875" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="15" t="s">
         <v>247</v>
       </c>
@@ -2059,137 +2058,161 @@
       <c r="F1" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="L1" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="M1" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="M2" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="12" customFormat="1">
+    </row>
+    <row r="3" spans="1:14" s="12" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="M3" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="12" customFormat="1">
+    </row>
+    <row r="4" spans="1:14" s="12" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="M4" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2251,7 +2274,7 @@
         <v>191</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2278,7 +2301,7 @@
         <v>192</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2311,7 +2334,7 @@
         <v>193</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2549,7 +2572,7 @@
     <row r="5" spans="1:8" s="12" customFormat="1"/>
     <row r="8" spans="1:8" ht="15.6" customHeight="1"/>
     <row r="10" spans="1:8" ht="16.2" customHeight="1">
-      <c r="B10" s="31"/>
+      <c r="B10" s="30"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="14"/>
@@ -2685,10 +2708,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65437506-71EE-4623-BA3E-4F0661C58DED}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2764,14 +2787,14 @@
         <v>200</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:11" s="12" customFormat="1">
       <c r="A5" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" s="8" t="b">
         <v>1</v>
@@ -2780,7 +2803,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B6" s="8" t="b">
         <v>1</v>
@@ -2788,7 +2811,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B7" s="8" t="b">
         <v>1</v>
@@ -2798,150 +2821,156 @@
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="158.4">
+    </row>
+    <row r="9" spans="1:11" ht="86.4">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="F9" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="12" customFormat="1">
+      <c r="C10" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="34" customFormat="1">
+      <c r="C11" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="12" customFormat="1">
+      <c r="C12" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E12" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="12" customFormat="1">
-      <c r="C10" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="12" customFormat="1">
-      <c r="C11" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="33" t="s">
+      <c r="F12" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="I12" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>294</v>
+      <c r="G12" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="I13" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="K13" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="I14" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="I15" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="I16" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B20" s="28" t="s">
         <v>134</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -2949,17 +2978,15 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="15" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -2970,10 +2997,10 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B22" s="8" t="b">
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="12"/>
@@ -2986,12 +3013,12 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B23" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -3002,7 +3029,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B24" s="8" t="b">
         <v>1</v>
@@ -3017,66 +3044,64 @@
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>278</v>
-      </c>
+      <c r="A25" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1">
-      <c r="C26" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="D26" s="33" t="s">
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" s="12" customFormat="1">
+      <c r="C27" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="F27" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="E26" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="I27" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>267</v>
+      <c r="G27" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3087,9 +3112,15 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="I28" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="12"/>
@@ -3115,6 +3146,18 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3125,7 +3168,7 @@
           <x14:formula1>
             <xm:f>'Properties List'!$K$2:$K$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K26:K1048576 L25 K1:K24</xm:sqref>
+          <xm:sqref>K27:K1048576 L26 K1:K25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kangxh\Infra-as-code\deployment\2099\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09403DAB-A134-42EC-B767-64A3648FCB6B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00927974-84F3-48A6-873A-7EF5274E8C02}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="14112" activeTab="3" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="14112" activeTab="10" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="320">
   <si>
     <t>ResourceGroup</t>
   </si>
@@ -960,12 +960,6 @@
     <t>sqladmin</t>
   </si>
   <si>
-    <t>Password_01!</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>utf8</t>
   </si>
   <si>
@@ -987,9 +981,6 @@
     <t>User Name</t>
   </si>
   <si>
-    <t>User Password</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
@@ -1002,12 +993,6 @@
     <t>Allow Azure internal Access</t>
   </si>
   <si>
-    <t>KeyVault Name</t>
-  </si>
-  <si>
-    <t>mc-mysql-iac-svr</t>
-  </si>
-  <si>
     <t>mc-mysql-iac-db1</t>
   </si>
   <si>
@@ -1021,6 +1006,18 @@
   </si>
   <si>
     <t>0fef2d1d-7012-4bd2-bd2a-0d6aa8a52247</t>
+  </si>
+  <si>
+    <t>mc-mysql-iac-svr1</t>
+  </si>
+  <si>
+    <t>mc-mysql-iac-svr2</t>
+  </si>
+  <si>
+    <t>mc-mysql-iac-db2</t>
+  </si>
+  <si>
+    <t>mc-mysql-iac-db3</t>
   </si>
 </sst>
 </file>
@@ -1880,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD3BF6B-20D9-4585-8ED8-1463BB7E1471}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1892,59 +1889,62 @@
     <col min="2" max="2" width="21.109375" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" style="34" customWidth="1"/>
+    <col min="9" max="10" width="13.44140625" style="34" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="35" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="H1" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="M1" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="36" t="s">
         <v>137</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>39</v>
@@ -1955,28 +1955,37 @@
       <c r="E2" s="34">
         <v>5.7</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="H2" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="L2" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="34" t="s">
+      <c r="M2" s="34" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13" s="34" customFormat="1">
       <c r="A3" s="36" t="s">
         <v>137</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>39</v>
@@ -1987,25 +1996,69 @@
       <c r="E3" s="34">
         <v>5.7</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="H3" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L3" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="K3" s="34" t="b">
+      <c r="M3" s="34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="34" customFormat="1">
+      <c r="A4" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" s="34">
+        <v>5.7</v>
+      </c>
+      <c r="F4" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="G4" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="M4" s="34" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2019,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1487A2A8-6513-49DE-8403-DD6A0CA5AD44}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2059,13 +2112,13 @@
         <v>252</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>253</v>
@@ -2710,7 +2763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65437506-71EE-4623-BA3E-4F0661C58DED}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2889,7 +2942,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>285</v>

--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kangxh\Infra-as-code\deployment\2099\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00927974-84F3-48A6-873A-7EF5274E8C02}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97084F57-A23D-4A7C-BB3F-F7A01B171EFF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="14112" activeTab="10" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="14112" activeTab="7" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="321">
   <si>
     <t>ResourceGroup</t>
   </si>
@@ -280,9 +280,6 @@
     <t>vNetRG</t>
   </si>
   <si>
-    <t>Password01!!</t>
-  </si>
-  <si>
     <t>vmName</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
   </si>
   <si>
     <t>imageUri</t>
-  </si>
-  <si>
-    <t>adminPassword</t>
   </si>
   <si>
     <t>vmDiagnosticStor</t>
@@ -1018,6 +1012,15 @@
   </si>
   <si>
     <t>mc-mysql-iac-db3</t>
+  </si>
+  <si>
+    <t>keyvaultRG</t>
+  </si>
+  <si>
+    <t>keyvault</t>
+  </si>
+  <si>
+    <t>secret</t>
   </si>
 </sst>
 </file>
@@ -1640,73 +1643,73 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="C4" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>108</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="12" customFormat="1"/>
     <row r="7" spans="1:3">
       <c r="A7" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>71</v>
@@ -1715,73 +1718,73 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C17" s="22"/>
     </row>
@@ -1793,17 +1796,17 @@
     <row r="19" spans="1:3" s="12" customFormat="1"/>
     <row r="20" spans="1:3">
       <c r="A20" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C21" s="23"/>
     </row>
@@ -1817,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1825,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1833,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1841,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1900,57 +1903,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="H1" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="K1" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="K1" s="35" t="s">
+      <c r="M1" s="35" t="s">
         <v>307</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E2" s="34">
         <v>5.7</v>
@@ -1959,39 +1962,39 @@
         <v>1</v>
       </c>
       <c r="G2" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="M2" s="34" t="s">
         <v>299</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="34" customFormat="1">
       <c r="A3" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E3" s="34">
         <v>5.7</v>
@@ -2000,39 +2003,39 @@
         <v>1</v>
       </c>
       <c r="G3" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="M3" s="34" t="s">
         <v>299</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="34" customFormat="1">
       <c r="A4" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E4" s="34">
         <v>5.7</v>
@@ -2041,25 +2044,25 @@
         <v>1</v>
       </c>
       <c r="G4" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="M4" s="34" t="s">
         <v>299</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2072,7 +2075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1487A2A8-6513-49DE-8403-DD6A0CA5AD44}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2094,178 +2097,178 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="L1" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="M1" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="N1" s="35" t="s">
         <v>255</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="M2" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="12" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="G3" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="K3" s="12" t="s">
+      <c r="M3" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="12" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="G4" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="G4" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="K4" s="12" t="s">
+      <c r="M4" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2300,7 +2303,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>3</v>
@@ -2309,25 +2312,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2339,22 +2342,22 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2362,32 +2365,32 @@
         <v>31</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2395,7 +2398,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>6</v>
@@ -2403,13 +2406,13 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="8"/>
     </row>
@@ -2418,7 +2421,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>7</v>
@@ -2426,16 +2429,16 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="14"/>
       <c r="B6" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>8</v>
@@ -2447,7 +2450,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="14"/>
       <c r="B7" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>9</v>
@@ -2459,7 +2462,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="14"/>
       <c r="B8" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>10</v>
@@ -2471,7 +2474,7 @@
     <row r="9" spans="1:11">
       <c r="A9" s="14"/>
       <c r="B9" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>11</v>
@@ -2541,80 +2544,80 @@
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1">
       <c r="A1" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="H1" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="H2" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="12" customFormat="1">
       <c r="A3" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="12" customFormat="1">
@@ -2654,7 +2657,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
@@ -2665,46 +2668,46 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2787,7 +2790,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>44</v>
@@ -2822,12 +2825,12 @@
         <v>42</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>39</v>
@@ -2837,17 +2840,17 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:11" s="12" customFormat="1">
       <c r="A5" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B5" s="8" t="b">
         <v>1</v>
@@ -2856,7 +2859,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B6" s="8" t="b">
         <v>1</v>
@@ -2864,7 +2867,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B7" s="8" t="b">
         <v>1</v>
@@ -2874,148 +2877,148 @@
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="86.4">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>280</v>
-      </c>
       <c r="F9" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>286</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="12" customFormat="1">
       <c r="C10" s="32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="34" customFormat="1">
       <c r="C11" s="32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="12" customFormat="1">
       <c r="C12" s="32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D12" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>285</v>
-      </c>
       <c r="G12" s="31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="I13" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="I14" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="I15" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="I16" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3023,7 +3026,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -3034,7 +3037,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>39</v>
@@ -3050,10 +3053,10 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="12"/>
@@ -3066,7 +3069,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B23" s="8" t="b">
         <v>1</v>
@@ -3082,7 +3085,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B24" s="8" t="b">
         <v>1</v>
@@ -3098,7 +3101,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B25" s="8" t="b">
         <v>1</v>
@@ -3116,22 +3119,22 @@
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>276</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -3139,22 +3142,22 @@
     </row>
     <row r="27" spans="1:11" s="12" customFormat="1">
       <c r="C27" s="35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D27" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="F27" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="E27" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>285</v>
-      </c>
       <c r="G27" s="31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3166,13 +3169,13 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="I28" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3257,7 +3260,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>44</v>
@@ -3313,7 +3316,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="27"/>
@@ -3327,7 +3330,7 @@
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>39</v>
@@ -3335,23 +3338,23 @@
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1">
       <c r="A4" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:18" s="12" customFormat="1">
       <c r="A5" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:18" s="12" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>4</v>
@@ -3360,18 +3363,18 @@
     </row>
     <row r="7" spans="1:18" s="12" customFormat="1">
       <c r="C7" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="12" customFormat="1">
       <c r="C8" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>5</v>
@@ -3382,7 +3385,7 @@
     </row>
     <row r="9" spans="1:18" s="12" customFormat="1">
       <c r="C9" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>6</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="10" spans="1:18" s="12" customFormat="1">
       <c r="C10" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>7</v>
@@ -3404,10 +3407,10 @@
     </row>
     <row r="11" spans="1:18" s="12" customFormat="1">
       <c r="C11" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>18</v>
@@ -3415,10 +3418,10 @@
     </row>
     <row r="12" spans="1:18" s="12" customFormat="1">
       <c r="C12" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>19</v>
@@ -3426,7 +3429,7 @@
     </row>
     <row r="13" spans="1:18" s="12" customFormat="1">
       <c r="C13" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>10</v>
@@ -3437,7 +3440,7 @@
     </row>
     <row r="14" spans="1:18" s="12" customFormat="1">
       <c r="C14" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>11</v>
@@ -3448,7 +3451,7 @@
     </row>
     <row r="15" spans="1:18" s="12" customFormat="1">
       <c r="C15" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>12</v>
@@ -3459,7 +3462,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="C16" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>13</v>
@@ -3470,7 +3473,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="C17" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>14</v>
@@ -3520,7 +3523,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="27"/>
@@ -3534,7 +3537,7 @@
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>39</v>
@@ -3542,10 +3545,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="12"/>
@@ -3559,7 +3562,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="3"/>
@@ -3574,10 +3577,10 @@
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C26" s="3"/>
     </row>
@@ -3585,13 +3588,13 @@
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -3604,13 +3607,13 @@
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
@@ -3623,13 +3626,13 @@
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
@@ -3642,13 +3645,13 @@
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -3661,13 +3664,13 @@
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -3680,13 +3683,13 @@
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -3699,13 +3702,13 @@
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -3718,13 +3721,13 @@
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
@@ -3737,13 +3740,13 @@
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -3756,13 +3759,13 @@
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -3775,13 +3778,13 @@
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -3846,7 +3849,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="27"/>
@@ -3860,7 +3863,7 @@
     </row>
     <row r="42" spans="1:11" s="12" customFormat="1">
       <c r="A42" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>39</v>
@@ -3868,10 +3871,10 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="12"/>
@@ -3885,7 +3888,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="3"/>
@@ -3900,10 +3903,10 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="12"/>
@@ -3919,13 +3922,13 @@
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -3938,13 +3941,13 @@
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -4080,7 +4083,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>44</v>
@@ -4136,7 +4139,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="27"/>
@@ -4157,7 +4160,7 @@
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>39</v>
@@ -4166,228 +4169,228 @@
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1">
       <c r="A4" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:18">
       <c r="C5" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="C6" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>170</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I6" s="9">
         <v>3389</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="C7" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I7" s="9">
         <v>22</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K7" s="9">
         <v>210</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="C8" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K8" s="9">
         <v>200</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="C9" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I9" s="9">
         <v>443</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K9" s="9">
         <v>100</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="C10" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I10" s="9">
         <v>80</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K10" s="9">
         <v>110</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="M11" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N11" s="15" t="s">
         <v>42</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="M12" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P12" s="14" t="s">
         <v>6</v>
@@ -4395,13 +4398,13 @@
     </row>
     <row r="13" spans="1:18" s="12" customFormat="1">
       <c r="M13" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>6</v>
@@ -4412,7 +4415,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="27"/>
@@ -4442,171 +4445,171 @@
     </row>
     <row r="16" spans="1:18" s="12" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:16">
       <c r="C17" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E17" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="H17" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="I17" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="J17" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="K17" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="C18" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>184</v>
-      </c>
       <c r="G18" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I18" s="9">
         <v>1433</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K18" s="9">
         <v>100</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="C19" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H19" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>184</v>
-      </c>
       <c r="J19" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K19" s="9">
         <v>200</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="C20" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H20" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>184</v>
-      </c>
       <c r="J20" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K20" s="9">
         <v>210</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="C21" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K21" s="9">
         <v>200</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -4623,44 +4626,44 @@
     </row>
     <row r="23" spans="1:16">
       <c r="M23" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>42</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="M24" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="M25" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -4668,7 +4671,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="27"/>
@@ -4708,10 +4711,10 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="12"/>
@@ -4731,34 +4734,34 @@
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="H29" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="I29" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="J29" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="K29" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="L29" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>179</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -4768,34 +4771,34 @@
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E30" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>184</v>
-      </c>
       <c r="G30" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I30" s="9">
         <v>1433</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K30" s="9">
         <v>100</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
@@ -4814,16 +4817,16 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N31" s="15" t="s">
         <v>42</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -4839,13 +4842,13 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P32" s="14" t="s">
         <v>5</v>
@@ -4923,7 +4926,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>44</v>
@@ -4979,7 +4982,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="27"/>
@@ -4994,7 +4997,7 @@
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>39</v>
@@ -5002,29 +5005,29 @@
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1">
       <c r="A4" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:18" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="13"/>
       <c r="C5" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>2</v>
@@ -5032,70 +5035,70 @@
     </row>
     <row r="6" spans="1:18">
       <c r="C6" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>242</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="C7" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="I8" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>42</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="I9" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -5111,7 +5114,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="27"/>
@@ -5126,7 +5129,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>39</v>
@@ -5143,10 +5146,10 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="12"/>
@@ -5163,19 +5166,19 @@
       <c r="A15" s="13"/>
       <c r="B15" s="12"/>
       <c r="C15" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>2</v>
@@ -5189,22 +5192,22 @@
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -5220,16 +5223,16 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>42</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -5241,13 +5244,13 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>5</v>
@@ -5304,10 +5307,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68429E91-ED41-4E27-A447-875D29420820}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5318,19 +5321,21 @@
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.109375" customWidth="1"/>
     <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="68.109375" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="63.88671875" customWidth="1"/>
+    <col min="8" max="8" width="25" style="11" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
     <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -5339,85 +5344,82 @@
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>78</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="N1" s="7" t="s">
-        <v>84</v>
+        <v>318</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>53</v>
+        <v>319</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>54</v>
+        <v>320</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T1" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>6</v>
@@ -5429,43 +5431,46 @@
         <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20">
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>7</v>
@@ -5477,16 +5482,19 @@
         <v>25</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20">
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="8"/>
@@ -5506,10 +5514,8 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="07CFs5zcmlqdV6sLVYE+AZlD2j3k9aYC1gmoUYk7ajtmURfUoGFrDbdRHmY2pIUfG7JD+akDu60/LH7dJOGT+Q==" saltValue="Fl2H+3fkIVVgcE6OCtZjpg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{480092A1-4AD8-4EE9-AD19-B02A5964B82A}"/>
   </hyperlinks>
@@ -5624,7 +5630,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>39</v>
@@ -5640,7 +5646,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -5670,7 +5676,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>28</v>
@@ -5686,7 +5692,7 @@
         <v>63</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" s="8">
         <v>80</v>
@@ -5704,10 +5710,10 @@
         <v>61</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>12</v>

--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kangxh\Infra-as-code\deployment\2099\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5622BACC-F0EF-47DF-93D6-A07153BFA62C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B37BBA5-034D-4EB7-8EFB-48ABCFA082B7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16248" activeTab="7" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16248" activeTab="4" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -1640,7 +1640,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2087,7 +2087,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2545,7 +2545,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2635,7 +2635,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3295,7 +3295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66F6C2E-1DAB-4048-8E28-1F02F50FBD7B}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -5184,8 +5184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68429E91-ED41-4E27-A447-875D29420820}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kangxh\Infra-as-code\deployment\2099\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B37BBA5-034D-4EB7-8EFB-48ABCFA082B7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1F8330-DCBB-4817-BA0E-2F014966D20C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16248" activeTab="4" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
@@ -3295,8 +3295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66F6C2E-1DAB-4048-8E28-1F02F50FBD7B}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kangxh\Infra-as-code\deployment\2099\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allenk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1F8330-DCBB-4817-BA0E-2F014966D20C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85FF966-166A-4A11-856C-C0EB9893070A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16248" activeTab="4" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="10" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="322">
   <si>
     <t>ResourceGroup</t>
   </si>
@@ -67,12 +67,6 @@
     <t>app</t>
   </si>
   <si>
-    <t>db</t>
-  </si>
-  <si>
-    <t>dbpaas</t>
-  </si>
-  <si>
     <t>redis</t>
   </si>
   <si>
@@ -142,12 +136,6 @@
     <t>Standard_A3</t>
   </si>
   <si>
-    <t>/subscriptions/c4013028-2728-46b8-acf1-e397840c4344/resourceGroups/LabMgmt/providers/Microsoft.KeyVault/vaults/mc-keyvault-lab</t>
-  </si>
-  <si>
-    <t>https://mc-keyvault-lab.vault.azure.cn/secrets/mc-client-server-auth/17dbd853f2e846959f9be711358e1903</t>
-  </si>
-  <si>
     <t>EncryptAndSign</t>
   </si>
   <si>
@@ -286,9 +274,6 @@
     <t>adminUsername</t>
   </si>
   <si>
-    <t>https://allenklab.blob.core.chinacloudapi.cn/vhds/CentOSAzureImg.vhd</t>
-  </si>
-  <si>
     <t>UDR type</t>
   </si>
   <si>
@@ -319,12 +304,6 @@
     <t>10.0.100.100</t>
   </si>
   <si>
-    <t xml:space="preserve">to UAT </t>
-  </si>
-  <si>
-    <t>to Production</t>
-  </si>
-  <si>
     <t>mc</t>
   </si>
   <si>
@@ -418,54 +397,9 @@
     <t>Cloud-Resource-Project/Description/Number</t>
   </si>
   <si>
-    <t>mc-rg-iac-basic</t>
-  </si>
-  <si>
-    <t>mc-rg-iac-vm</t>
-  </si>
-  <si>
-    <t>mc-rg-iac-sf</t>
-  </si>
-  <si>
-    <t>mc-rg-iac-db</t>
-  </si>
-  <si>
-    <t>mc-vm-iacweb</t>
-  </si>
-  <si>
-    <t>mc-vm-iacapp</t>
-  </si>
-  <si>
-    <t>use lower case</t>
-  </si>
-  <si>
-    <t>computer name is less than 15</t>
-  </si>
-  <si>
-    <t>mc-avset-iac-web</t>
-  </si>
-  <si>
-    <t>mcsaiacvmdiag</t>
-  </si>
-  <si>
-    <t>mc-udr-to-uat</t>
-  </si>
-  <si>
     <t>addressPrefix</t>
   </si>
   <si>
-    <t>udr is in the same RG of virtual network</t>
-  </si>
-  <si>
-    <t>mc-sf-iac</t>
-  </si>
-  <si>
-    <t>mcsaiacdiaglog</t>
-  </si>
-  <si>
-    <t>mc-pip-iac</t>
-  </si>
-  <si>
     <t>VirtualNetworkGateway</t>
   </si>
   <si>
@@ -499,24 +433,12 @@
     <t>ApplicationID</t>
   </si>
   <si>
-    <t>954ddad8-66d7-47a8-8f9f-1316152d9587</t>
-  </si>
-  <si>
-    <t>c4013028-2728-46b8-acf1-e397840c4344</t>
-  </si>
-  <si>
     <t>AzureUSGovernment</t>
   </si>
   <si>
     <t>AzureGermanCloud</t>
   </si>
   <si>
-    <t>mc-nsg-iac-web</t>
-  </si>
-  <si>
-    <t>mc-nsg-iac-db</t>
-  </si>
-  <si>
     <t>Block_RDP_Internet</t>
   </si>
   <si>
@@ -613,9 +535,6 @@
     <t>virtualNetworks</t>
   </si>
   <si>
-    <t>nsg need to be create with at least one rule</t>
-  </si>
-  <si>
     <t>subnets</t>
   </si>
   <si>
@@ -667,18 +586,9 @@
     <t>Linux</t>
   </si>
   <si>
-    <t>/data/infra-as-code/mc-allenk-automation-spn.pem</t>
-  </si>
-  <si>
     <t>OS</t>
   </si>
   <si>
-    <t>C:\kangxh\AzureLabs\Certs\mc-allenk-automation-spn.pem</t>
-  </si>
-  <si>
-    <t>mc-vnet-iac-uat</t>
-  </si>
-  <si>
     <t>10.1.0.0/16, 10.2.0.0/16</t>
   </si>
   <si>
@@ -694,37 +604,7 @@
     <t>10.3.0.0/16</t>
   </si>
   <si>
-    <t>10.3.1.0/24</t>
-  </si>
-  <si>
-    <t>mc-vnet-iac-dev</t>
-  </si>
-  <si>
-    <t>mc-vnet-iac-prod</t>
-  </si>
-  <si>
-    <t>mc-nsg-iac-firewall</t>
-  </si>
-  <si>
-    <t>mc-udr-iac-dev</t>
-  </si>
-  <si>
     <t>rules</t>
-  </si>
-  <si>
-    <t>mc-udr-dev-to-uat</t>
-  </si>
-  <si>
-    <t>mc-udr-dev-to-prod</t>
-  </si>
-  <si>
-    <t>mc-udr-iac-prod</t>
-  </si>
-  <si>
-    <t>web, app, sqldb</t>
-  </si>
-  <si>
-    <t>47a639b4-f614-4e56-a2bf-6979f64ce5cf</t>
   </si>
   <si>
     <t>Resource Group</t>
@@ -837,39 +717,12 @@
     <t>objectName</t>
   </si>
   <si>
-    <t>mc-kv-iac-dev</t>
-  </si>
-  <si>
-    <t>mc-kv-iac-uat</t>
-  </si>
-  <si>
-    <t>d17b5bec-7daf-4ab0-b4e1-a17eef0fffa6</t>
-  </si>
-  <si>
-    <t>allenkdemo</t>
-  </si>
-  <si>
-    <t>0764cb57-add0-4f55-855d-3d700cc2d37b</t>
-  </si>
-  <si>
-    <t>allenk_automation</t>
-  </si>
-  <si>
     <t>objectid</t>
   </si>
   <si>
     <t>all</t>
   </si>
   <si>
-    <t>Get, List, Update, Create, Import, Delete, Recover, Backup, Restore</t>
-  </si>
-  <si>
-    <t>Get, List, Set, Delete, Recover, Backup, Restore</t>
-  </si>
-  <si>
-    <t>Get, List, Update, Create, Import, Delete, Recover, ManageContacts, ManageIssuers, GetIssuers, ListIssuers, SetIssuers, DeleteIssuers</t>
-  </si>
-  <si>
     <t>New Secret</t>
   </si>
   <si>
@@ -882,21 +735,6 @@
     <t>newValue</t>
   </si>
   <si>
-    <t>dc8b19b4-4dfa-49e2-96c2-11672fc39670</t>
-  </si>
-  <si>
-    <t>mc-sql-iac-server</t>
-  </si>
-  <si>
-    <t>mc-sql-iac-db-01</t>
-  </si>
-  <si>
-    <t>mc-sql-iac-db-02</t>
-  </si>
-  <si>
-    <t>mc-sql-iac-db-03</t>
-  </si>
-  <si>
     <t>MS1</t>
   </si>
   <si>
@@ -936,9 +774,6 @@
     <t>Allow Azure internal Access</t>
   </si>
   <si>
-    <t>mc-mysql-iac-db1</t>
-  </si>
-  <si>
     <t>KeyVaultRG</t>
   </si>
   <si>
@@ -948,21 +783,6 @@
     <t>Secret</t>
   </si>
   <si>
-    <t>0fef2d1d-7012-4bd2-bd2a-0d6aa8a52247</t>
-  </si>
-  <si>
-    <t>mc-mysql-iac-svr1</t>
-  </si>
-  <si>
-    <t>mc-mysql-iac-svr2</t>
-  </si>
-  <si>
-    <t>mc-mysql-iac-db2</t>
-  </si>
-  <si>
-    <t>mc-mysql-iac-db3</t>
-  </si>
-  <si>
     <t>keyvaultRG</t>
   </si>
   <si>
@@ -975,9 +795,6 @@
     <t>Username:KeyVaultRG:Keyvault:Secret</t>
   </si>
   <si>
-    <t>customValue</t>
-  </si>
-  <si>
     <t>keyvaultDescription</t>
   </si>
   <si>
@@ -1008,9 +825,6 @@
     <t>descroption</t>
   </si>
   <si>
-    <t>mc-avset-iac-app</t>
-  </si>
-  <si>
     <t>dataDiskNumber</t>
   </si>
   <si>
@@ -1020,13 +834,196 @@
     <t>standardImg</t>
   </si>
   <si>
-    <t>standard disk image using name format like: publisher,offer,sku</t>
-  </si>
-  <si>
     <t>nextHopIP</t>
   </si>
   <si>
     <t>nextHop</t>
+  </si>
+  <si>
+    <t>72f988bf-86f1-41af-91ab-2d7cd011db47</t>
+  </si>
+  <si>
+    <t>9c6835cb-2079-4f99-96f4-74029267e0df</t>
+  </si>
+  <si>
+    <t>187ee3fa-5f06-4d09-9154-f0755415e458</t>
+  </si>
+  <si>
+    <t>/data/infra-as-code/az-allenk-cli-automation.pem</t>
+  </si>
+  <si>
+    <t>Objectid</t>
+  </si>
+  <si>
+    <t>151708ca-fa3d-4eae-bc5a-964ce7675f6c</t>
+  </si>
+  <si>
+    <t>az-rg-iac-infra</t>
+  </si>
+  <si>
+    <t>az-rg-iac-vm</t>
+  </si>
+  <si>
+    <t>az-rg-iac-sf</t>
+  </si>
+  <si>
+    <t>az-rg-iac-db</t>
+  </si>
+  <si>
+    <t>vpc</t>
+  </si>
+  <si>
+    <t>virtual private cloud</t>
+  </si>
+  <si>
+    <t>az-kv-iac-dev</t>
+  </si>
+  <si>
+    <t>az-kv-iac-uat</t>
+  </si>
+  <si>
+    <t>allenk-cli-automation</t>
+  </si>
+  <si>
+    <t>450e841a-2328-497e-8c1b-7ecc09d8371f</t>
+  </si>
+  <si>
+    <t>Strong password for vm template</t>
+  </si>
+  <si>
+    <t>Strong password for vmss template</t>
+  </si>
+  <si>
+    <t>Strong password for SQL and MySQL DB</t>
+  </si>
+  <si>
+    <t>southeastasia</t>
+  </si>
+  <si>
+    <t>az-vnet-iac-dev</t>
+  </si>
+  <si>
+    <t>az-vnet-iac-uat</t>
+  </si>
+  <si>
+    <t>az-nsg-iac-web</t>
+  </si>
+  <si>
+    <t>az-nsg-iac-db</t>
+  </si>
+  <si>
+    <t>az-udr-iac-dev</t>
+  </si>
+  <si>
+    <t>10.0.9.0/24</t>
+  </si>
+  <si>
+    <t>10.1.9.0/24</t>
+  </si>
+  <si>
+    <t>az-udr-iac-uat</t>
+  </si>
+  <si>
+    <t>az-udr-dev-demo-to-uat</t>
+  </si>
+  <si>
+    <t>az-udr-dev-demo-to-prod</t>
+  </si>
+  <si>
+    <t>az-udr-uat-demo-to-dev</t>
+  </si>
+  <si>
+    <t>to uat vnet</t>
+  </si>
+  <si>
+    <t>to prod vnet</t>
+  </si>
+  <si>
+    <t>to dev vnet</t>
+  </si>
+  <si>
+    <t>demox</t>
+  </si>
+  <si>
+    <t>demoy</t>
+  </si>
+  <si>
+    <t>10.0.10.0/24</t>
+  </si>
+  <si>
+    <t>10.1.10.0/24</t>
+  </si>
+  <si>
+    <t>demox, demoy</t>
+  </si>
+  <si>
+    <t>az-avset-iac-web</t>
+  </si>
+  <si>
+    <t>azsaiacvmdiag</t>
+  </si>
+  <si>
+    <t>az-avset-iac-app</t>
+  </si>
+  <si>
+    <t>azvmiacweb</t>
+  </si>
+  <si>
+    <t>azvmiacapp</t>
+  </si>
+  <si>
+    <t>azvmiacdb</t>
+  </si>
+  <si>
+    <t>az-avset-iac-db</t>
+  </si>
+  <si>
+    <t>10.0.4.10</t>
+  </si>
+  <si>
+    <t>az-sf-iac</t>
+  </si>
+  <si>
+    <t>azsaiacdiaglog</t>
+  </si>
+  <si>
+    <t>/subscriptions/c4013028-2728-46b8-acf1-e397840c4344/resourceGroups/LabMgmt/providers/Microsoft.KeyVault/vaults/az-keyvault-lab</t>
+  </si>
+  <si>
+    <t>https://az-keyvault-lab.vault.azure.cn/secrets/az-client-server-auth/17dbd853f2e846959f9be711358e1903</t>
+  </si>
+  <si>
+    <t>az-pip-iac-sf</t>
+  </si>
+  <si>
+    <t>az-mysql-iac-db1</t>
+  </si>
+  <si>
+    <t>az-mysql-iac-db2</t>
+  </si>
+  <si>
+    <t>az-mysql-iac-dev</t>
+  </si>
+  <si>
+    <t>az-mysql-iac-uat</t>
+  </si>
+  <si>
+    <t>https://allenklab.blob.core.windows.net/vhds/CentOSAzureImg.vhd</t>
+  </si>
+  <si>
+    <t>C:\kangxh\AzureLabs\Certs\az-allenk-cli-automation.pem</t>
+  </si>
+  <si>
+    <t>az-sql-iac-dev</t>
+  </si>
+  <si>
+    <t>az-sql-iac-db-01</t>
+  </si>
+  <si>
+    <t>az-sql-iac-db-02</t>
+  </si>
+  <si>
+    <t>az-sql-iac-db-03</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1243,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1308,12 +1305,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1637,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FACF3B-E68C-49F0-9A47-F9BBC3152013}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1653,148 +1653,148 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>94</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="11" customFormat="1"/>
     <row r="7" spans="1:3">
       <c r="A7" s="21" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="21" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="21" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="21" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="21" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C17" s="21"/>
     </row>
@@ -1806,82 +1806,28 @@
     <row r="19" spans="1:3" s="11" customFormat="1"/>
     <row r="20" spans="1:3">
       <c r="A20" s="22" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="22" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>271</v>
+      </c>
       <c r="C22" s="19"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="13">
-        <v>1</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="13">
-        <v>2</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="13">
-        <v>3</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="13">
-        <v>4</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="13">
-        <v>5</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="13">
-        <v>6</v>
-      </c>
-      <c r="B31" s="13"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="13">
-        <v>7</v>
-      </c>
-      <c r="B32" s="13"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="13">
-        <v>8</v>
-      </c>
-      <c r="B33" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1894,7 +1840,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1914,57 +1860,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="30" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="31" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>38</v>
+        <v>314</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="E2" s="29">
         <v>5.7</v>
@@ -1973,39 +1919,39 @@
         <v>1</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="29" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>38</v>
+        <v>314</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="E3" s="29">
         <v>5.7</v>
@@ -2014,39 +1960,39 @@
         <v>1</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="29" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>38</v>
+        <v>315</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="E4" s="29">
         <v>5.7</v>
@@ -2055,25 +2001,25 @@
         <v>1</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2086,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1487A2A8-6513-49DE-8403-DD6A0CA5AD44}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2109,46 +2055,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="30" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="O1" s="30" t="s">
         <v>2</v>
@@ -2156,136 +2102,136 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="31" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>38</v>
+        <v>318</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>279</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" s="11" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>38</v>
+        <v>318</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>279</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" s="11" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>38</v>
+        <v>318</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>279</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="O4" s="13"/>
     </row>
@@ -2300,7 +2246,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2318,10 +2264,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>3</v>
@@ -2330,136 +2276,138 @@
         <v>1</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>119</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="25" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>120</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
+        <v>122</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
+        <v>78</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -2468,10 +2416,10 @@
     <row r="7" spans="1:11">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>9</v>
+        <v>121</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -2480,10 +2428,10 @@
     <row r="8" spans="1:11">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>10</v>
+        <v>79</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -2492,10 +2440,10 @@
     <row r="9" spans="1:11">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>11</v>
+        <v>86</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -2504,8 +2452,8 @@
     <row r="10" spans="1:11">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
-        <v>12</v>
+      <c r="C10" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -2514,8 +2462,8 @@
     <row r="11" spans="1:11">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
-        <v>13</v>
+      <c r="C11" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -2524,8 +2472,8 @@
     <row r="12" spans="1:11">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
-        <v>14</v>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -2533,6 +2481,9 @@
     </row>
     <row r="13" spans="1:11">
       <c r="B13" s="13"/>
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2542,10 +2493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89DD4EF-EA99-49BE-99A4-8354913F615F}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2556,74 +2507,84 @@
     <col min="4" max="4" width="39.21875" customWidth="1"/>
     <col min="5" max="5" width="41.77734375" customWidth="1"/>
     <col min="6" max="6" width="53.77734375" customWidth="1"/>
+    <col min="7" max="7" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1">
-      <c r="A1" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>151</v>
+    <row r="1" spans="1:7" s="11" customFormat="1">
+      <c r="A1" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>129</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
+        <v>125</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>153</v>
+        <v>179</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>261</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="11" customFormat="1">
+        <v>262</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>153</v>
+        <v>180</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>261</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="11" customFormat="1">
+        <v>263</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="11" customFormat="1">
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:6" s="11" customFormat="1"/>
-    <row r="8" spans="1:6" ht="15.6" customHeight="1"/>
-    <row r="10" spans="1:6" ht="16.2" customHeight="1"/>
+    <row r="5" spans="1:7" s="11" customFormat="1"/>
+    <row r="8" spans="1:7" ht="15.6" customHeight="1"/>
+    <row r="9" spans="1:7" ht="16.2" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2635,19 +2596,19 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.109375" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="60.44140625" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -2658,46 +2619,46 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>127</v>
+        <v>268</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2730,27 +2691,15 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EA263940-8EDF-49D7-8D4A-414373BF9641}">
-          <x14:formula1>
-            <xm:f>'Properties List'!$D:$D</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B5</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65437506-71EE-4623-BA3E-4F0661C58DED}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2761,98 +2710,94 @@
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="25.77734375" customWidth="1"/>
     <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" style="29" customWidth="1"/>
     <col min="11" max="11" width="19.33203125" customWidth="1"/>
     <col min="12" max="12" width="18.44140625" customWidth="1"/>
     <col min="13" max="13" width="13.44140625" customWidth="1"/>
-    <col min="14" max="14" width="21.33203125" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" customWidth="1"/>
+    <col min="14" max="14" width="39.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="B2" s="13" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:14">
       <c r="A3" s="14" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:14">
       <c r="A4" s="14" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="3"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:15" s="11" customFormat="1">
+    <row r="5" spans="1:14" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="B5" s="7" t="b">
         <v>1</v>
@@ -2861,260 +2806,250 @@
       <c r="D5" s="3"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:14">
       <c r="A6" s="14" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="B6" s="7" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="B7" s="7" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:14">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="D8" s="14" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="86.4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="11" customFormat="1">
+      <c r="C9" s="29"/>
       <c r="D9" s="27" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>261</v>
+        <v>23</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>275</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" spans="1:15" s="11" customFormat="1">
+        <v>220</v>
+      </c>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:14" s="11" customFormat="1">
       <c r="C10" s="29"/>
       <c r="D10" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>25</v>
+        <v>272</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>274</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G10" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="K11" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="K12" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="K13" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="K14" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="H10" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:15" s="29" customFormat="1">
-      <c r="D11" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:15" s="11" customFormat="1">
-      <c r="C12" s="29"/>
-      <c r="D12" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="K13" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="M13" s="30" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="N13" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="O13" s="30" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="K14" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="K15" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="K16" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>125</v>
-      </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="11"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="11"/>
+        <v>210</v>
+      </c>
+      <c r="B20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="B21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="30" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="B22" s="7" t="b">
         <v>1</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -3123,91 +3058,99 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B23" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+    <row r="23" spans="1:14">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="D23" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>246</v>
+      </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="B24" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" s="11" customFormat="1">
+      <c r="C24" s="29"/>
+      <c r="D24" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="D25" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-    </row>
-    <row r="26" spans="1:15" s="11" customFormat="1">
-      <c r="C26" s="29"/>
-      <c r="D26" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="J26" s="33"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="K25" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="K26" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="D27" s="11"/>
@@ -3215,23 +3158,20 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="K27" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="O27" s="30" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="K27" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="D28" s="11"/>
@@ -3239,39 +3179,18 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
+      <c r="K28" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>278</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3283,7 +3202,7 @@
           <x14:formula1>
             <xm:f>'Properties List'!$K$2:$K$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M26:M1048576 N25 L17:L21 M22:M24 M1:M16</xm:sqref>
+          <xm:sqref>M1:M14 L15:L19 M20:M22 M24:M1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3293,10 +3212,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66F6C2E-1DAB-4048-8E28-1F02F50FBD7B}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3311,30 +3230,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1">
       <c r="A2" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>125</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>266</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -3342,31 +3261,31 @@
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1">
       <c r="A3" s="14" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>38</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1">
       <c r="A6" s="14" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>4</v>
@@ -3375,265 +3294,261 @@
     </row>
     <row r="7" spans="1:6" s="29" customFormat="1">
       <c r="A7" s="30" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="11" customFormat="1">
       <c r="C8" s="14" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="11" customFormat="1">
       <c r="C9" s="14" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1">
       <c r="C10" s="14" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" s="11" customFormat="1">
       <c r="C11" s="14" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1">
       <c r="C12" s="14" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1">
       <c r="C13" s="14" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1">
       <c r="C14" s="14" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1">
       <c r="C15" s="14" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1">
       <c r="C16" s="14" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" s="29" customFormat="1">
+      <c r="C17" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" s="29" customFormat="1">
+      <c r="C18" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="C19" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="C20" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="C17" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="C18" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="30" t="s">
+      <c r="F20" s="13"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="11" customFormat="1">
+      <c r="A25" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="11" customFormat="1">
-      <c r="A23" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-    </row>
-    <row r="24" spans="1:6" s="11" customFormat="1">
-      <c r="A24" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="14" t="s">
-        <v>187</v>
-      </c>
       <c r="B25" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:6">
+        <v>266</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="1:6" s="11" customFormat="1">
       <c r="A26" s="14" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" s="11" customFormat="1">
-      <c r="A27" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>212</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>281</v>
       </c>
       <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" s="29" customFormat="1">
-      <c r="A28" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="B28" s="25"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>248</v>
+      </c>
       <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F30" s="13"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" s="11" customFormat="1">
+      <c r="A29" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" s="29" customFormat="1">
+      <c r="A30" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="F31" s="13"/>
+        <v>164</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="14" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="F32" s="13"/>
     </row>
@@ -3641,13 +3556,13 @@
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="14" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="F33" s="13"/>
     </row>
@@ -3655,13 +3570,13 @@
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="14" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="F34" s="13"/>
     </row>
@@ -3669,13 +3584,13 @@
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="14" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="F35" s="13"/>
     </row>
@@ -3683,13 +3598,13 @@
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="14" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="F36" s="13"/>
     </row>
@@ -3697,13 +3612,13 @@
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="14" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="F37" s="13"/>
     </row>
@@ -3711,13 +3626,13 @@
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="14" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="F38" s="13"/>
     </row>
@@ -3725,151 +3640,102 @@
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="14" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+    <row r="40" spans="1:6" s="29" customFormat="1">
+      <c r="C40" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" s="29" customFormat="1">
+      <c r="C41" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:6" s="11" customFormat="1">
-      <c r="A43" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-    </row>
-    <row r="44" spans="1:6" s="11" customFormat="1">
-      <c r="A44" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C45" s="3"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C46" s="3"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="C47" s="3"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="1:6" s="29" customFormat="1">
-      <c r="A48" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
+    <row r="48" spans="1:6">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3879,10 +3745,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CB9A08-700A-4F46-9866-C465156BD9E9}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3908,63 +3774,63 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="H1" s="30" t="s">
+      <c r="P1" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="30" t="s">
         <v>164</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -3984,254 +3850,254 @@
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="C3" s="3"/>
       <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:17" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="C4" s="3"/>
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:17" s="29" customFormat="1">
       <c r="A5" s="30" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="14" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="C7" s="14" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="I7" s="8">
         <v>3389</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="K7" s="8">
         <v>200</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:17">
       <c r="C8" s="14" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="I8" s="8">
         <v>22</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="K8" s="8">
         <v>210</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:17">
       <c r="C9" s="14" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="K9" s="8">
         <v>200</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:17">
       <c r="C10" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="E10" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="I10" s="8">
         <v>443</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="K10" s="8">
         <v>100</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:17">
       <c r="C11" s="14" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="I11" s="8">
         <v>80</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="K11" s="8">
         <v>110</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:17">
       <c r="N12" s="14" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="N13" s="14" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="13" t="s">
         <v>6</v>
@@ -4240,13 +4106,13 @@
     <row r="14" spans="1:17" s="11" customFormat="1">
       <c r="M14" s="29"/>
       <c r="N14" s="14" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="13" t="s">
         <v>6</v>
@@ -4254,10 +4120,10 @@
     </row>
     <row r="15" spans="1:17" s="11" customFormat="1">
       <c r="A15" s="30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -4280,192 +4146,192 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="C16" s="3"/>
       <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:17" s="11" customFormat="1">
       <c r="A17" s="30" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="C17" s="3"/>
       <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:17" s="29" customFormat="1">
       <c r="A18" s="30" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:17">
       <c r="C19" s="14" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="C20" s="14" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="I20" s="8">
         <v>1433</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="K20" s="8">
         <v>100</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:17">
       <c r="C21" s="14" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="K21" s="8">
         <v>200</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:17">
       <c r="C22" s="14" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="K22" s="8">
         <v>210</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:17">
       <c r="C23" s="14" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="K23" s="8">
         <v>200</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="M23" s="8"/>
     </row>
@@ -4484,248 +4350,49 @@
     </row>
     <row r="25" spans="1:17">
       <c r="N25" s="14" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="14" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="N26" s="14" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="N27" s="14" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="Q29" s="11"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="Q30" s="11"/>
-    </row>
-    <row r="31" spans="1:17" s="29" customFormat="1">
-      <c r="A31" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="J32" s="14" t="s">
         <v>166</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="M32" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="Q32" s="11"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I33" s="8">
-        <v>1433</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K33" s="8">
-        <v>100</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="Q33" s="11"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="N34" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="P34" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q34" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="N35" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="O35" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="P35" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q35" s="13" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K30:K33 I25:I26 K17:K24 K6:K14 I34:I1048576 K1" xr:uid="{13621260-432B-4BFD-8DC6-F5BBC64B2C4E}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I25:I26 K17:K24 K6:K14 K1 I28:I1048576" xr:uid="{13621260-432B-4BFD-8DC6-F5BBC64B2C4E}">
       <formula1>100</formula1>
       <formula2>60000</formula2>
     </dataValidation>
@@ -4739,7 +4406,7 @@
           <x14:formula1>
             <xm:f>'Properties List'!$H:$H</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I5 L17:L24 L30:L33 I15:I18 L1 I28:I31 L6:L14</xm:sqref>
+          <xm:sqref>I2:I5 L17:L24 I15:I18 L1 L6:L14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E5C207E7-BC5D-472E-8727-115676681EFB}">
           <x14:formula1>
@@ -4751,7 +4418,7 @@
           <x14:formula1>
             <xm:f>'Properties List'!$G:$G</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H19 H23:H26 H28:H32 H34:H1048576</xm:sqref>
+          <xm:sqref>H1:H19 H23:H26 H28:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{095F0657-A849-4CFB-B574-A53B77C40DC5}">
           <x14:formula1>
@@ -4769,8 +4436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71DACD7-923E-41EE-A168-21177D0CC449}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4778,7 +4445,7 @@
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
     <col min="2" max="2" width="24.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.21875" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" customWidth="1"/>
@@ -4791,66 +4458,66 @@
   <sheetData>
     <row r="1" spans="1:18" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="K1" s="30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="11" customFormat="1">
       <c r="A2" s="30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -4865,24 +4532,24 @@
     </row>
     <row r="3" spans="1:18" s="11" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>38</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:18" s="29" customFormat="1">
       <c r="A5" s="30" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
@@ -4890,90 +4557,90 @@
     <row r="6" spans="1:18" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="12"/>
       <c r="C6" s="14" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>322</v>
+        <v>259</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="C7" s="14" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>92</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="C8" s="14" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>93</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="I9" s="14" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="I10" s="14" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>226</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4986,10 +4653,10 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -5004,10 +4671,10 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="30" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -5021,10 +4688,10 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="30" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="11"/>
@@ -5039,7 +4706,7 @@
     </row>
     <row r="16" spans="1:18" s="29" customFormat="1">
       <c r="A16" s="30" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="3"/>
@@ -5048,22 +4715,22 @@
       <c r="A17" s="12"/>
       <c r="B17" s="11"/>
       <c r="C17" s="14" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>322</v>
+        <v>259</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -5074,22 +4741,22 @@
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="14" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>92</v>
+        <v>293</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -5105,16 +4772,16 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="14" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -5126,16 +4793,16 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="14" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>5</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -5184,23 +4851,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68429E91-ED41-4E27-A447-875D29420820}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.109375" style="29" customWidth="1"/>
     <col min="9" max="9" width="22.5546875" customWidth="1"/>
     <col min="10" max="10" width="63.88671875" customWidth="1"/>
-    <col min="11" max="11" width="26.21875" style="29" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="29" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25" style="10" customWidth="1"/>
     <col min="13" max="13" width="20.5546875" customWidth="1"/>
     <col min="14" max="14" width="17.33203125" customWidth="1"/>
@@ -5214,7 +4881,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -5223,122 +4890,122 @@
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>302</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="13">
         <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="37">
+        <v>299</v>
+      </c>
+      <c r="G2" s="36">
         <v>3</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="36">
         <v>31</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="8" t="s">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -5346,86 +5013,122 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>303</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="13">
         <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" s="36">
+        <v>2</v>
+      </c>
+      <c r="H3" s="36">
+        <v>31</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="G3" s="37">
-        <v>2</v>
-      </c>
-      <c r="H3" s="37">
-        <v>127</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="8" t="s">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="1"/>
+      <c r="A4" s="30" t="s">
+        <v>304</v>
+      </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="2"/>
+      <c r="C4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13">
+        <v>30</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G4" s="36">
+        <v>1</v>
+      </c>
+      <c r="H4" s="36">
+        <v>31</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="K4" s="13"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="L4" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>207</v>
+      </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
@@ -5433,9 +5136,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{480092A1-4AD8-4EE9-AD19-B02A5964B82A}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{E224B0BE-11B9-47A1-982C-6DD22BA30DC3}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{397F3374-DE38-43A9-BF5F-38BFC8F77C57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -5455,7 +5160,7 @@
           <x14:formula1>
             <xm:f>RG!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>M1:M1048576 C1:C1048576</xm:sqref>
+          <xm:sqref>C1:C1048576 M1:M1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5468,7 +5173,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5476,65 +5181,65 @@
     <col min="1" max="1" width="20.77734375" customWidth="1"/>
     <col min="2" max="2" width="52.44140625" customWidth="1"/>
     <col min="3" max="3" width="35.109375" customWidth="1"/>
-    <col min="4" max="4" width="100.21875" customWidth="1"/>
-    <col min="5" max="5" width="55.88671875" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" customWidth="1"/>
     <col min="6" max="6" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -5542,26 +5247,26 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>38</v>
+        <v>268</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>138</v>
+        <v>307</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -5569,45 +5274,45 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" s="7">
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>139</v>
+        <v>308</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>140</v>
+        <v>311</v>
       </c>
       <c r="D6" s="7">
         <v>80</v>
@@ -5619,60 +5324,60 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="14.4" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>33</v>
+        <v>309</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allenk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85FF966-166A-4A11-856C-C0EB9893070A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C156C5B8-BBA9-4D92-822E-708E4A018CCA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="10" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="3" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -2032,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1487A2A8-6513-49DE-8403-DD6A0CA5AD44}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2496,7 +2496,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2698,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65437506-71EE-4623-BA3E-4F0661C58DED}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3138,7 +3138,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="K26" s="30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>207</v>
@@ -3159,7 +3159,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="K27" s="30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>208</v>
@@ -3180,7 +3180,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="K28" s="30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>209</v>

--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allenk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C156C5B8-BBA9-4D92-822E-708E4A018CCA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F44FCA-415F-44D8-B239-51B53CC452C1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="3" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="4" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -2698,7 +2698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65437506-71EE-4623-BA3E-4F0661C58DED}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -3214,8 +3214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66F6C2E-1DAB-4048-8E28-1F02F50FBD7B}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="40" spans="1:6" s="29" customFormat="1">
       <c r="C40" s="30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>294</v>
@@ -3748,7 +3748,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4852,7 +4852,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allenk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F44FCA-415F-44D8-B239-51B53CC452C1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077E2546-CCBF-48E4-8E23-76B9EB196F8C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="4" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
@@ -3214,8 +3214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66F6C2E-1DAB-4048-8E28-1F02F50FBD7B}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3481,7 +3481,7 @@
         <v>185</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>34</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:6">

--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allenk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077E2546-CCBF-48E4-8E23-76B9EB196F8C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{722BE72B-B391-497D-ABE7-838389366C02}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="4" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="5" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="vNet" sheetId="11" r:id="rId5"/>
     <sheet name="NSG" sheetId="6" r:id="rId6"/>
     <sheet name="UDR" sheetId="7" r:id="rId7"/>
-    <sheet name="VM" sheetId="3" r:id="rId8"/>
-    <sheet name="ServiceFabric" sheetId="2" r:id="rId9"/>
+    <sheet name="LoadBalancer" sheetId="15" r:id="rId8"/>
+    <sheet name="VM" sheetId="3" r:id="rId9"/>
     <sheet name="MySQL" sheetId="12" r:id="rId10"/>
     <sheet name="SQL" sheetId="13" r:id="rId11"/>
     <sheet name="Properties List" sheetId="5" r:id="rId12"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="277">
   <si>
     <t>ResourceGroup</t>
   </si>
@@ -115,15 +115,6 @@
     <t>allenk</t>
   </si>
   <si>
-    <t>4F883F8F26299DDE014E9B86E7559FF8C6184D87</t>
-  </si>
-  <si>
-    <t>Standard_LRS</t>
-  </si>
-  <si>
-    <t>vNet</t>
-  </si>
-  <si>
     <t>vmSize</t>
   </si>
   <si>
@@ -136,51 +127,15 @@
     <t>Standard_A3</t>
   </si>
   <si>
-    <t>EncryptAndSign</t>
-  </si>
-  <si>
     <t>Properties</t>
   </si>
   <si>
-    <t>Name: Location</t>
-  </si>
-  <si>
     <t>ChinaNorth</t>
   </si>
   <si>
-    <t>Name: AddressPrefix</t>
-  </si>
-  <si>
     <t>resourceGroupName</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -199,51 +154,9 @@
     <t>R</t>
   </si>
   <si>
-    <t>Cluster Name</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>vNetRG:vNet:Subnet</t>
-  </si>
-  <si>
-    <t>Public Access</t>
-  </si>
-  <si>
-    <t>PIPName:Port1:Port2</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Level:KeyVault:SecretsURL:ThumbPrint</t>
-  </si>
-  <si>
-    <t>VM Properties</t>
-  </si>
-  <si>
-    <t>nt0InstanceCount:vmNodeType0Size</t>
-  </si>
-  <si>
-    <t>Logging</t>
-  </si>
-  <si>
-    <t>LogStorAccount:SKU</t>
-  </si>
-  <si>
     <t>virtual network</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>10.0.2.10</t>
-  </si>
-  <si>
-    <t>10.0.3.10</t>
-  </si>
-  <si>
     <t>vNetRG</t>
   </si>
   <si>
@@ -295,9 +208,6 @@
     <t>virtual machine</t>
   </si>
   <si>
-    <t>service fabric</t>
-  </si>
-  <si>
     <t>IP Range</t>
   </si>
   <si>
@@ -517,15 +427,6 @@
     <t>Allow_HTTP_Internet</t>
   </si>
   <si>
-    <t>Block_Web_Subnet</t>
-  </si>
-  <si>
-    <t>Block_APP_Subnet</t>
-  </si>
-  <si>
-    <t>Allow_DB_Port</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -541,45 +442,9 @@
     <t>mysqldb</t>
   </si>
   <si>
-    <t>sqldb, mysqldb</t>
-  </si>
-  <si>
-    <t>10.1.1.0/24</t>
-  </si>
-  <si>
-    <t>10.1.2.0/24</t>
-  </si>
-  <si>
-    <t>10.1.3.0/24</t>
-  </si>
-  <si>
-    <t>10.1.4.0/24</t>
-  </si>
-  <si>
-    <t>10.1.5.0/24</t>
-  </si>
-  <si>
-    <t>10.1.6.0/24</t>
-  </si>
-  <si>
-    <t>10.1.7.0/24</t>
-  </si>
-  <si>
-    <t>10.1.8.0/24</t>
-  </si>
-  <si>
-    <t>10.1.100.0/24</t>
-  </si>
-  <si>
-    <t>10.1.200.0/24</t>
-  </si>
-  <si>
     <t>10.1.0.0/16</t>
   </si>
   <si>
-    <t>db services</t>
-  </si>
-  <si>
     <t>Windows</t>
   </si>
   <si>
@@ -587,9 +452,6 @@
   </si>
   <si>
     <t>OS</t>
-  </si>
-  <si>
-    <t>10.1.0.0/16, 10.2.0.0/16</t>
   </si>
   <si>
     <t>addressPrefixes</t>
@@ -678,9 +540,6 @@
     <t>secrets</t>
   </si>
   <si>
-    <t>secretValue</t>
-  </si>
-  <si>
     <t>vmpassword</t>
   </si>
   <si>
@@ -792,9 +651,6 @@
     <t>secret</t>
   </si>
   <si>
-    <t>Username:KeyVaultRG:Keyvault:Secret</t>
-  </si>
-  <si>
     <t>keyvaultDescription</t>
   </si>
   <si>
@@ -804,9 +660,6 @@
     <t>secretDescription</t>
   </si>
   <si>
-    <t>8.8.8.8, 8.8.4.4</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -858,30 +711,12 @@
     <t>151708ca-fa3d-4eae-bc5a-964ce7675f6c</t>
   </si>
   <si>
-    <t>az-rg-iac-infra</t>
-  </si>
-  <si>
-    <t>az-rg-iac-vm</t>
-  </si>
-  <si>
-    <t>az-rg-iac-sf</t>
-  </si>
-  <si>
-    <t>az-rg-iac-db</t>
-  </si>
-  <si>
     <t>vpc</t>
   </si>
   <si>
     <t>virtual private cloud</t>
   </si>
   <si>
-    <t>az-kv-iac-dev</t>
-  </si>
-  <si>
-    <t>az-kv-iac-uat</t>
-  </si>
-  <si>
     <t>allenk-cli-automation</t>
   </si>
   <si>
@@ -900,48 +735,15 @@
     <t>southeastasia</t>
   </si>
   <si>
-    <t>az-vnet-iac-dev</t>
-  </si>
-  <si>
-    <t>az-vnet-iac-uat</t>
-  </si>
-  <si>
-    <t>az-nsg-iac-web</t>
-  </si>
-  <si>
-    <t>az-nsg-iac-db</t>
-  </si>
-  <si>
-    <t>az-udr-iac-dev</t>
-  </si>
-  <si>
     <t>10.0.9.0/24</t>
   </si>
   <si>
-    <t>10.1.9.0/24</t>
-  </si>
-  <si>
-    <t>az-udr-iac-uat</t>
-  </si>
-  <si>
-    <t>az-udr-dev-demo-to-uat</t>
-  </si>
-  <si>
-    <t>az-udr-dev-demo-to-prod</t>
-  </si>
-  <si>
-    <t>az-udr-uat-demo-to-dev</t>
-  </si>
-  <si>
     <t>to uat vnet</t>
   </si>
   <si>
     <t>to prod vnet</t>
   </si>
   <si>
-    <t>to dev vnet</t>
-  </si>
-  <si>
     <t>demox</t>
   </si>
   <si>
@@ -951,79 +753,142 @@
     <t>10.0.10.0/24</t>
   </si>
   <si>
-    <t>10.1.10.0/24</t>
-  </si>
-  <si>
     <t>demox, demoy</t>
   </si>
   <si>
-    <t>az-avset-iac-web</t>
-  </si>
-  <si>
-    <t>azsaiacvmdiag</t>
-  </si>
-  <si>
-    <t>az-avset-iac-app</t>
-  </si>
-  <si>
-    <t>azvmiacweb</t>
-  </si>
-  <si>
-    <t>azvmiacapp</t>
-  </si>
-  <si>
-    <t>azvmiacdb</t>
-  </si>
-  <si>
-    <t>az-avset-iac-db</t>
-  </si>
-  <si>
-    <t>10.0.4.10</t>
-  </si>
-  <si>
-    <t>az-sf-iac</t>
-  </si>
-  <si>
-    <t>azsaiacdiaglog</t>
-  </si>
-  <si>
-    <t>/subscriptions/c4013028-2728-46b8-acf1-e397840c4344/resourceGroups/LabMgmt/providers/Microsoft.KeyVault/vaults/az-keyvault-lab</t>
-  </si>
-  <si>
-    <t>https://az-keyvault-lab.vault.azure.cn/secrets/az-client-server-auth/17dbd853f2e846959f9be711358e1903</t>
-  </si>
-  <si>
-    <t>az-pip-iac-sf</t>
-  </si>
-  <si>
-    <t>az-mysql-iac-db1</t>
-  </si>
-  <si>
-    <t>az-mysql-iac-db2</t>
-  </si>
-  <si>
-    <t>az-mysql-iac-dev</t>
-  </si>
-  <si>
-    <t>az-mysql-iac-uat</t>
-  </si>
-  <si>
     <t>https://allenklab.blob.core.windows.net/vhds/CentOSAzureImg.vhd</t>
   </si>
   <si>
     <t>C:\kangxh\AzureLabs\Certs\az-allenk-cli-automation.pem</t>
   </si>
   <si>
-    <t>az-sql-iac-dev</t>
-  </si>
-  <si>
-    <t>az-sql-iac-db-01</t>
-  </si>
-  <si>
-    <t>az-sql-iac-db-02</t>
-  </si>
-  <si>
-    <t>az-sql-iac-db-03</t>
+    <t>az-rg-iac-xxx</t>
+  </si>
+  <si>
+    <t>az-vnet-iac-xxx</t>
+  </si>
+  <si>
+    <t>az-avset-iac-xxx</t>
+  </si>
+  <si>
+    <t>az-nsg-iac-xxx</t>
+  </si>
+  <si>
+    <t>azvmiacxxx</t>
+  </si>
+  <si>
+    <t>azsaiacdiag</t>
+  </si>
+  <si>
+    <t>az-sql-iac-xxx</t>
+  </si>
+  <si>
+    <t>az-sql-iac-db-xxx</t>
+  </si>
+  <si>
+    <t>az-sql-iac-dw-xxx</t>
+  </si>
+  <si>
+    <t>fta</t>
+  </si>
+  <si>
+    <t>FastTrack Azure</t>
+  </si>
+  <si>
+    <t>az-rg-fta-core</t>
+  </si>
+  <si>
+    <t>application services</t>
+  </si>
+  <si>
+    <t>data science</t>
+  </si>
+  <si>
+    <t>az-rg-fta-vm</t>
+  </si>
+  <si>
+    <t>az-rg-fta-app</t>
+  </si>
+  <si>
+    <t>az-rg-fta-data</t>
+  </si>
+  <si>
+    <t>az-kv-fta</t>
+  </si>
+  <si>
+    <t>servicefabric</t>
+  </si>
+  <si>
+    <t>az-vnet-fta</t>
+  </si>
+  <si>
+    <t>az-nsg-fta-web</t>
+  </si>
+  <si>
+    <t>az-udr-fta-web</t>
+  </si>
+  <si>
+    <t>az-udr-fta</t>
+  </si>
+  <si>
+    <t>az-udr-fta-to-ext</t>
+  </si>
+  <si>
+    <t>az-udr-fta-to-vnet</t>
+  </si>
+  <si>
+    <t>azvmftaweb</t>
+  </si>
+  <si>
+    <t>azvmftaapp</t>
+  </si>
+  <si>
+    <t>az-avset-fta-web</t>
+  </si>
+  <si>
+    <t>az-avset-fta-app</t>
+  </si>
+  <si>
+    <t>azsaftavmdiag</t>
+  </si>
+  <si>
+    <t>azvmftasdb</t>
+  </si>
+  <si>
+    <t>az-avset-fta-sdb</t>
+  </si>
+  <si>
+    <t>10.0.2.11</t>
+  </si>
+  <si>
+    <t>10.0.3.11</t>
+  </si>
+  <si>
+    <t>10.0.4.11</t>
+  </si>
+  <si>
+    <t>az-rg-fta-db</t>
+  </si>
+  <si>
+    <t>az-mysql-fta</t>
+  </si>
+  <si>
+    <t>az-mysql-fta-db1</t>
+  </si>
+  <si>
+    <t>az-mysql-fta-db2</t>
+  </si>
+  <si>
+    <t>az-sql-fta</t>
+  </si>
+  <si>
+    <t>az-sql-fta-db-01</t>
+  </si>
+  <si>
+    <t>az-sql-fta-db-02</t>
+  </si>
+  <si>
+    <t>az-sql-fta-db-03</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +993,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1214,19 +1079,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1243,7 +1095,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1299,13 +1151,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1637,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FACF3B-E68C-49F0-9A47-F9BBC3152013}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1653,150 +1501,164 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="20" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>94</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="20" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>94</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="20" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>94</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3" s="11" customFormat="1"/>
     <row r="7" spans="1:3">
       <c r="A7" s="21" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="21" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="21" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="21" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="21" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="21"/>
+        <v>54</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="21" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="21"/>
+        <v>70</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="21" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="21" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="21" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="21" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="21"/>
+        <v>80</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="21" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="21"/>
+        <v>82</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="16"/>
@@ -1806,28 +1668,37 @@
     <row r="19" spans="1:3" s="11" customFormat="1"/>
     <row r="20" spans="1:3">
       <c r="A20" s="22" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="22" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="19" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1837,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD3BF6B-20D9-4585-8ED8-1463BB7E1471}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1860,43 +1731,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="30" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1904,13 +1775,13 @@
         <v>269</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="E2" s="29">
         <v>5.7</v>
@@ -1919,25 +1790,25 @@
         <v>1</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="29" customFormat="1">
@@ -1945,13 +1816,13 @@
         <v>269</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="E3" s="29">
         <v>5.7</v>
@@ -1960,66 +1831,25 @@
         <v>1</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="I3" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="J3" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>313</v>
-      </c>
       <c r="L3" s="29" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="29" customFormat="1">
-      <c r="A4" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="29">
-        <v>5.7</v>
-      </c>
-      <c r="F4" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2033,7 +1863,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2055,46 +1885,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="30" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>240</v>
-      </c>
       <c r="J1" s="30" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="O1" s="30" t="s">
         <v>2</v>
@@ -2105,43 +1935,43 @@
         <v>269</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="O2" s="13"/>
     </row>
@@ -2150,43 +1980,43 @@
         <v>269</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="O3" s="13"/>
     </row>
@@ -2195,43 +2025,43 @@
         <v>269</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="O4" s="13"/>
     </row>
@@ -2264,10 +2094,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>3</v>
@@ -2276,25 +2106,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2304,67 +2134,67 @@
         <v>5</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="25" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>7</v>
@@ -2372,42 +2202,42 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -2416,7 +2246,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>8</v>
@@ -2428,7 +2258,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>9</v>
@@ -2440,7 +2270,7 @@
     <row r="9" spans="1:11">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>10</v>
@@ -2453,7 +2283,7 @@
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="7" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -2463,7 +2293,7 @@
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="7" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -2496,7 +2326,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2512,71 +2342,71 @@
   <sheetData>
     <row r="1" spans="1:7" s="11" customFormat="1">
       <c r="A1" s="30" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>317</v>
+        <v>233</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="11" customFormat="1">
@@ -2593,10 +2423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B2EED0-F8A3-4EAB-A0E2-E8FB8977E89E}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2608,7 +2438,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -2619,46 +2449,46 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>224</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>279</v>
+      <c r="A5" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>224</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2676,12 +2506,7 @@
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="13" spans="1:3" s="11" customFormat="1"/>
+    <row r="12" spans="1:3" s="11" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{1885BC1C-48C1-4423-ABA0-034E31BD2799}">
@@ -2696,10 +2521,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65437506-71EE-4623-BA3E-4F0661C58DED}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2722,63 +2547,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="14" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="11"/>
@@ -2786,10 +2611,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="14" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="3"/>
@@ -2797,7 +2622,7 @@
     </row>
     <row r="5" spans="1:14" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="B5" s="7" t="b">
         <v>1</v>
@@ -2808,7 +2633,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="14" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="B6" s="7" t="b">
         <v>1</v>
@@ -2817,7 +2642,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="B7" s="7" t="b">
         <v>1</v>
@@ -2828,368 +2653,125 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="D8" s="14" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="11" customFormat="1">
       <c r="C9" s="29"/>
       <c r="D9" s="27" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="38" t="s">
-        <v>275</v>
+      <c r="F9" s="36" t="s">
+        <v>220</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:14" s="11" customFormat="1">
       <c r="C10" s="29"/>
       <c r="D10" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>274</v>
+        <v>251</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>219</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:14">
       <c r="K11" s="14" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="K12" s="14" t="s">
-        <v>272</v>
+      <c r="K12" s="27" t="s">
+        <v>251</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="M12" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="K13" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="N13" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="N12" s="13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="K13" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>277</v>
-      </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="K14" s="14" t="s">
-        <v>272</v>
+      <c r="K14" s="27" t="s">
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="B21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="D23" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="1:14" s="11" customFormat="1">
-      <c r="C24" s="29"/>
-      <c r="D24" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="J24" s="33"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="K25" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="N25" s="30" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="K26" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="K27" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="N27" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="K28" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3202,7 +2784,7 @@
           <x14:formula1>
             <xm:f>'Properties List'!$K$2:$K$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M1:M14 L15:L19 M20:M22 M24:M1048576</xm:sqref>
+          <xm:sqref>M1:M14 L15 M16:M1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3212,10 +2794,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66F6C2E-1DAB-4048-8E28-1F02F50FBD7B}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3230,62 +2812,62 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1">
       <c r="A2" s="30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+        <v>245</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1">
       <c r="A3" s="14" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1">
       <c r="A6" s="14" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>4</v>
@@ -3294,28 +2876,28 @@
     </row>
     <row r="7" spans="1:6" s="29" customFormat="1">
       <c r="A7" s="30" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="11" customFormat="1">
       <c r="C8" s="14" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="11" customFormat="1">
       <c r="C9" s="14" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>5</v>
@@ -3326,8 +2908,8 @@
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1">
-      <c r="C10" s="14" t="s">
-        <v>280</v>
+      <c r="C10" s="30" t="s">
+        <v>253</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>6</v>
@@ -3338,8 +2920,8 @@
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" s="11" customFormat="1">
-      <c r="C11" s="14" t="s">
-        <v>280</v>
+      <c r="C11" s="30" t="s">
+        <v>253</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
@@ -3350,11 +2932,11 @@
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1">
-      <c r="C12" s="14" t="s">
-        <v>280</v>
+      <c r="C12" s="30" t="s">
+        <v>253</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>16</v>
@@ -3362,11 +2944,11 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1">
-      <c r="C13" s="14" t="s">
-        <v>280</v>
+      <c r="C13" s="30" t="s">
+        <v>253</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>17</v>
@@ -3374,8 +2956,8 @@
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1">
-      <c r="C14" s="14" t="s">
-        <v>280</v>
+      <c r="C14" s="30" t="s">
+        <v>253</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>8</v>
@@ -3386,8 +2968,8 @@
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1">
-      <c r="C15" s="14" t="s">
-        <v>280</v>
+      <c r="C15" s="30" t="s">
+        <v>253</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>9</v>
@@ -3398,11 +2980,11 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1">
-      <c r="C16" s="14" t="s">
-        <v>280</v>
+      <c r="C16" s="30" t="s">
+        <v>253</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>20</v>
@@ -3411,31 +2993,31 @@
     </row>
     <row r="17" spans="1:6" s="29" customFormat="1">
       <c r="C17" s="30" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" s="29" customFormat="1">
       <c r="C18" s="30" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="C19" s="14" t="s">
-        <v>280</v>
+      <c r="C19" s="30" t="s">
+        <v>253</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>11</v>
@@ -3446,8 +3028,8 @@
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="C20" s="14" t="s">
-        <v>280</v>
+      <c r="C20" s="30" t="s">
+        <v>253</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>12</v>
@@ -3458,284 +3040,32 @@
       <c r="F20" s="13"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="11" customFormat="1">
-      <c r="A25" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-    </row>
-    <row r="26" spans="1:6" s="11" customFormat="1">
-      <c r="A26" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>279</v>
-      </c>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="C27" s="3"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" s="11" customFormat="1">
-      <c r="A29" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" s="29" customFormat="1">
-      <c r="A30" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:6" s="29" customFormat="1">
-      <c r="C40" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" s="29" customFormat="1">
-      <c r="C41" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3745,10 +3075,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CB9A08-700A-4F46-9866-C465156BD9E9}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3774,625 +3104,338 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
+        <v>245</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="C3" s="3"/>
       <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:17" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="C4" s="3"/>
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:17" s="29" customFormat="1">
       <c r="A5" s="30" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="14" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="C7" s="14" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="I7" s="8">
         <v>3389</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K7" s="8">
         <v>200</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="C8" s="14" t="s">
-        <v>282</v>
+      <c r="C8" s="30" t="s">
+        <v>254</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="I8" s="8">
         <v>22</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K8" s="8">
         <v>210</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="C9" s="14" t="s">
-        <v>282</v>
+      <c r="C9" s="30" t="s">
+        <v>254</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K9" s="8">
         <v>200</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="C10" s="14" t="s">
-        <v>282</v>
+      <c r="C10" s="30" t="s">
+        <v>254</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="I10" s="8">
         <v>443</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="K10" s="8">
         <v>100</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="C11" s="14" t="s">
-        <v>282</v>
+      <c r="C11" s="30" t="s">
+        <v>254</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="I11" s="8">
         <v>80</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="K11" s="8">
         <v>110</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:17">
       <c r="N12" s="14" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="N13" s="14" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="Q13" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="11" customFormat="1">
-      <c r="M14" s="29"/>
-      <c r="N14" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="11" customFormat="1">
-      <c r="A15" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-    </row>
-    <row r="16" spans="1:17" s="11" customFormat="1">
-      <c r="A16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="1:17" s="11" customFormat="1">
-      <c r="A17" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:17" s="29" customFormat="1">
-      <c r="A18" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="C19" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="C20" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I20" s="8">
-        <v>1433</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="K20" s="8">
-        <v>100</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="C21" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="K21" s="8">
-        <v>200</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="C22" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="K22" s="8">
-        <v>210</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="C23" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="K23" s="8">
-        <v>200</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="C24" s="14"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="N25" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="N26" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="P26" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q26" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="N27" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="P27" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q27" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I25:I26 K17:K24 K6:K14 K1 I28:I1048576" xr:uid="{13621260-432B-4BFD-8DC6-F5BBC64B2C4E}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K13 K1 I14:I1048576" xr:uid="{13621260-432B-4BFD-8DC6-F5BBC64B2C4E}">
       <formula1>100</formula1>
       <formula2>60000</formula2>
     </dataValidation>
@@ -4406,25 +3449,25 @@
           <x14:formula1>
             <xm:f>'Properties List'!$H:$H</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I5 L17:L24 I15:I18 L1 L6:L14</xm:sqref>
+          <xm:sqref>I2:I5 L1 L6:L13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E5C207E7-BC5D-472E-8727-115676681EFB}">
           <x14:formula1>
             <xm:f>'Properties List'!$I:$I</xm:f>
           </x14:formula1>
-          <xm:sqref>G12:G26 G1:G9 G28:G1048576</xm:sqref>
+          <xm:sqref>G1:G9 G12:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BEFAC9C7-CCC3-4A07-9616-0BB56399C24F}">
           <x14:formula1>
             <xm:f>'Properties List'!$G:$G</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H19 H23:H26 H28:H1048576</xm:sqref>
+          <xm:sqref>H1:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{095F0657-A849-4CFB-B574-A53B77C40DC5}">
           <x14:formula1>
             <xm:f>'Properties List'!$J:$J</xm:f>
           </x14:formula1>
-          <xm:sqref>J1:J26 J28:J1048576</xm:sqref>
+          <xm:sqref>J1:J1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4434,10 +3477,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71DACD7-923E-41EE-A168-21177D0CC449}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4458,98 +3501,98 @@
   <sheetData>
     <row r="1" spans="1:18" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="30" t="s">
+      <c r="O1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="11" customFormat="1">
       <c r="A2" s="30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+        <v>245</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:18" s="11" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:18" s="29" customFormat="1">
       <c r="A5" s="30" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
@@ -4557,90 +3600,90 @@
     <row r="6" spans="1:18" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="12"/>
       <c r="C6" s="14" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="C7" s="14" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>291</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="C8" s="14" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="I9" s="14" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="I10" s="14" t="s">
-        <v>284</v>
+      <c r="I10" s="30" t="s">
+        <v>256</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4650,160 +3693,6 @@
     <row r="12" spans="1:18">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" s="29" customFormat="1">
-      <c r="A16" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="12"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>294</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4815,31 +3704,31 @@
           <x14:formula1>
             <xm:f>'Properties List'!$H:$H</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I5 I13:I16</xm:sqref>
+          <xm:sqref>I2:I5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8778F554-390E-41A4-B6A2-77DD1850456A}">
           <x14:formula1>
             <xm:f>'Properties List'!$I:$I</xm:f>
           </x14:formula1>
-          <xm:sqref>G13:G16 G2:G5</xm:sqref>
+          <xm:sqref>G2:G5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E1C16A05-8C53-43AA-B5B8-274F8A19BCC1}">
           <x14:formula1>
             <xm:f>'Properties List'!$G:$G</xm:f>
           </x14:formula1>
-          <xm:sqref>H13:H16 H2:H5</xm:sqref>
+          <xm:sqref>H2:H5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51577036-0944-49D6-93DE-252A4F45C4A3}">
           <x14:formula1>
             <xm:f>'Properties List'!$J:$J</xm:f>
           </x14:formula1>
-          <xm:sqref>J13:J16 J2:J5</xm:sqref>
+          <xm:sqref>J2:J5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1AA02A29-A6AC-4AF4-8413-CBF88FBC46D1}">
           <x14:formula1>
             <xm:f>RG!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B12 B17:B1048576</xm:sqref>
+          <xm:sqref>B6:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4848,11 +3737,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866ACBC7-9C85-425D-9380-8119BB794432}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68429E91-ED41-4E27-A447-875D29420820}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4881,7 +3785,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -4890,122 +3794,122 @@
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
       </c>
       <c r="E2" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G2" s="36">
-        <v>3</v>
-      </c>
-      <c r="H2" s="36">
+        <v>261</v>
+      </c>
+      <c r="G2" s="34">
+        <v>1</v>
+      </c>
+      <c r="H2" s="34">
         <v>31</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="8" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>65</v>
+        <v>266</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -5013,60 +3917,60 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3" s="13">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G3" s="36">
-        <v>2</v>
-      </c>
-      <c r="H3" s="36">
+        <v>262</v>
+      </c>
+      <c r="G3" s="34">
+        <v>1</v>
+      </c>
+      <c r="H3" s="34">
         <v>31</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>66</v>
+        <v>267</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>272</v>
+      <c r="R3" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -5074,60 +3978,60 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="30" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="E4" s="13">
-        <v>30</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G4" s="36">
+        <v>265</v>
+      </c>
+      <c r="G4" s="34">
         <v>1</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="34">
         <v>31</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="8" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -5166,222 +4070,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FE7611-FF07-4817-8846-44273D8303DC}">
-  <dimension ref="A1:R9"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="52.44140625" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" customWidth="1"/>
-    <col min="4" max="4" width="49.33203125" customWidth="1"/>
-    <col min="5" max="5" width="36.21875" customWidth="1"/>
-    <col min="6" max="6" width="45.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="7">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" s="7">
-        <v>80</v>
-      </c>
-      <c r="E6" s="7">
-        <v>81</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="14.4" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allenk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{722BE72B-B391-497D-ABE7-838389366C02}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED22D78D-DCB2-496D-BE7D-27A5A1178179}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="5" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="6" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="276">
   <si>
     <t>ResourceGroup</t>
   </si>
@@ -823,9 +823,6 @@
   </si>
   <si>
     <t>az-nsg-fta-web</t>
-  </si>
-  <si>
-    <t>az-udr-fta-web</t>
   </si>
   <si>
     <t>az-udr-fta</t>
@@ -1772,10 +1769,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>269</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>270</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>224</v>
@@ -1802,7 +1799,7 @@
         <v>161</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L2" s="29" t="s">
         <v>180</v>
@@ -1813,10 +1810,10 @@
     </row>
     <row r="3" spans="1:13" s="29" customFormat="1">
       <c r="A3" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>269</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>270</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>224</v>
@@ -1843,7 +1840,7 @@
         <v>161</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L3" s="29" t="s">
         <v>180</v>
@@ -1932,10 +1929,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>224</v>
@@ -1959,7 +1956,7 @@
         <v>161</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>156</v>
@@ -1977,10 +1974,10 @@
     </row>
     <row r="3" spans="1:15" s="11" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>224</v>
@@ -2004,7 +2001,7 @@
         <v>161</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>156</v>
@@ -2022,10 +2019,10 @@
     </row>
     <row r="4" spans="1:15" s="11" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>224</v>
@@ -2049,7 +2046,7 @@
         <v>161</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>156</v>
@@ -3077,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CB9A08-700A-4F46-9866-C465156BD9E9}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3479,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71DACD7-923E-41EE-A168-21177D0CC449}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3620,10 +3617,10 @@
     </row>
     <row r="7" spans="1:18">
       <c r="C7" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>256</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>257</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>133</v>
@@ -3640,10 +3637,10 @@
     </row>
     <row r="8" spans="1:18">
       <c r="C8" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>140</v>
@@ -3674,7 +3671,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="I10" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>245</v>
@@ -3856,7 +3853,7 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
@@ -3869,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G2" s="34">
         <v>1</v>
@@ -3885,7 +3882,7 @@
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>245</v>
@@ -3897,7 +3894,7 @@
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>23</v>
@@ -3917,7 +3914,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
@@ -3930,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G3" s="34">
         <v>1</v>
@@ -3946,7 +3943,7 @@
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>245</v>
@@ -3958,7 +3955,7 @@
         <v>7</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>23</v>
@@ -3978,7 +3975,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
@@ -3991,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G4" s="34">
         <v>1</v>
@@ -4007,7 +4004,7 @@
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>245</v>
@@ -4019,7 +4016,7 @@
         <v>79</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="13" t="s">
         <v>23</v>

--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allenk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED22D78D-DCB2-496D-BE7D-27A5A1178179}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C541C93B-C03A-42B1-94B9-0E0A5DF0DB01}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="6" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25896" windowHeight="8760" activeTab="6" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="vNet" sheetId="11" r:id="rId5"/>
     <sheet name="NSG" sheetId="6" r:id="rId6"/>
     <sheet name="UDR" sheetId="7" r:id="rId7"/>
-    <sheet name="LoadBalancer" sheetId="15" r:id="rId8"/>
-    <sheet name="VM" sheetId="3" r:id="rId9"/>
+    <sheet name="VM" sheetId="3" r:id="rId8"/>
+    <sheet name="ServiceFabric" sheetId="2" r:id="rId9"/>
     <sheet name="MySQL" sheetId="12" r:id="rId10"/>
     <sheet name="SQL" sheetId="13" r:id="rId11"/>
     <sheet name="Properties List" sheetId="5" r:id="rId12"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="315">
   <si>
     <t>ResourceGroup</t>
   </si>
@@ -67,6 +67,12 @@
     <t>app</t>
   </si>
   <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>dbpaas</t>
+  </si>
+  <si>
     <t>redis</t>
   </si>
   <si>
@@ -82,39 +88,27 @@
     <t>GatewaySubnet</t>
   </si>
   <si>
-    <t>10.0.1.0/24</t>
-  </si>
-  <si>
     <t>10.0.2.0/24</t>
   </si>
   <si>
     <t>10.0.3.0/24</t>
   </si>
   <si>
-    <t>10.0.4.0/24</t>
-  </si>
-  <si>
-    <t>10.0.5.0/24</t>
-  </si>
-  <si>
-    <t>10.0.6.0/24</t>
-  </si>
-  <si>
-    <t>10.0.7.0/24</t>
-  </si>
-  <si>
-    <t>10.0.8.0/24</t>
-  </si>
-  <si>
-    <t>10.0.100.0/24</t>
-  </si>
-  <si>
     <t>10.0.200.0/24</t>
   </si>
   <si>
     <t>allenk</t>
   </si>
   <si>
+    <t>4F883F8F26299DDE014E9B86E7559FF8C6184D87</t>
+  </si>
+  <si>
+    <t>Standard_LRS</t>
+  </si>
+  <si>
+    <t>vNet</t>
+  </si>
+  <si>
     <t>vmSize</t>
   </si>
   <si>
@@ -127,15 +121,57 @@
     <t>Standard_A3</t>
   </si>
   <si>
+    <t>/subscriptions/c4013028-2728-46b8-acf1-e397840c4344/resourceGroups/LabMgmt/providers/Microsoft.KeyVault/vaults/mc-keyvault-lab</t>
+  </si>
+  <si>
+    <t>https://mc-keyvault-lab.vault.azure.cn/secrets/mc-client-server-auth/17dbd853f2e846959f9be711358e1903</t>
+  </si>
+  <si>
+    <t>EncryptAndSign</t>
+  </si>
+  <si>
     <t>Properties</t>
   </si>
   <si>
+    <t>Name: Location</t>
+  </si>
+  <si>
     <t>ChinaNorth</t>
   </si>
   <si>
+    <t>Name: AddressPrefix</t>
+  </si>
+  <si>
     <t>resourceGroupName</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
@@ -154,9 +190,45 @@
     <t>R</t>
   </si>
   <si>
+    <t>Cluster Name</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>vNetRG:vNet:Subnet</t>
+  </si>
+  <si>
+    <t>Public Access</t>
+  </si>
+  <si>
+    <t>PIPName:Port1:Port2</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Level:KeyVault:SecretsURL:ThumbPrint</t>
+  </si>
+  <si>
+    <t>VM Properties</t>
+  </si>
+  <si>
+    <t>nt0InstanceCount:vmNodeType0Size</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>LogStorAccount:SKU</t>
+  </si>
+  <si>
     <t>virtual network</t>
   </si>
   <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>vNetRG</t>
   </si>
   <si>
@@ -187,6 +259,9 @@
     <t>adminUsername</t>
   </si>
   <si>
+    <t>https://allenklab.blob.core.chinacloudapi.cn/vhds/CentOSAzureImg.vhd</t>
+  </si>
+  <si>
     <t>UDR type</t>
   </si>
   <si>
@@ -307,9 +382,36 @@
     <t>Cloud-Resource-Project/Description/Number</t>
   </si>
   <si>
+    <t>mc-rg-iac-basic</t>
+  </si>
+  <si>
+    <t>mc-rg-iac-sf</t>
+  </si>
+  <si>
+    <t>mc-rg-iac-db</t>
+  </si>
+  <si>
+    <t>use lower case</t>
+  </si>
+  <si>
+    <t>computer name is less than 15</t>
+  </si>
+  <si>
     <t>addressPrefix</t>
   </si>
   <si>
+    <t>udr is in the same RG of virtual network</t>
+  </si>
+  <si>
+    <t>mc-sf-iac</t>
+  </si>
+  <si>
+    <t>mcsaiacdiaglog</t>
+  </si>
+  <si>
+    <t>mc-pip-iac</t>
+  </si>
+  <si>
     <t>VirtualNetworkGateway</t>
   </si>
   <si>
@@ -343,18 +445,18 @@
     <t>ApplicationID</t>
   </si>
   <si>
+    <t>954ddad8-66d7-47a8-8f9f-1316152d9587</t>
+  </si>
+  <si>
+    <t>c4013028-2728-46b8-acf1-e397840c4344</t>
+  </si>
+  <si>
     <t>AzureUSGovernment</t>
   </si>
   <si>
     <t>AzureGermanCloud</t>
   </si>
   <si>
-    <t>Block_RDP_Internet</t>
-  </si>
-  <si>
-    <t>Block_SSH_Internet</t>
-  </si>
-  <si>
     <t>Block_Internet_Outbound</t>
   </si>
   <si>
@@ -427,6 +529,15 @@
     <t>Allow_HTTP_Internet</t>
   </si>
   <si>
+    <t>Block_Web_Subnet</t>
+  </si>
+  <si>
+    <t>Block_APP_Subnet</t>
+  </si>
+  <si>
+    <t>Allow_DB_Port</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -436,24 +547,66 @@
     <t>virtualNetworks</t>
   </si>
   <si>
+    <t>nsg need to be create with at least one rule</t>
+  </si>
+  <si>
     <t>subnets</t>
   </si>
   <si>
     <t>mysqldb</t>
   </si>
   <si>
+    <t>sqldb, mysqldb</t>
+  </si>
+  <si>
+    <t>10.1.1.0/24</t>
+  </si>
+  <si>
+    <t>10.1.2.0/24</t>
+  </si>
+  <si>
+    <t>10.1.3.0/24</t>
+  </si>
+  <si>
+    <t>10.1.4.0/24</t>
+  </si>
+  <si>
+    <t>10.1.5.0/24</t>
+  </si>
+  <si>
+    <t>10.1.6.0/24</t>
+  </si>
+  <si>
+    <t>10.1.7.0/24</t>
+  </si>
+  <si>
+    <t>10.1.8.0/24</t>
+  </si>
+  <si>
+    <t>10.1.100.0/24</t>
+  </si>
+  <si>
     <t>10.1.0.0/16</t>
   </si>
   <si>
+    <t>db services</t>
+  </si>
+  <si>
     <t>Windows</t>
   </si>
   <si>
     <t>Linux</t>
   </si>
   <si>
+    <t>/data/infra-as-code/mc-allenk-automation-spn.pem</t>
+  </si>
+  <si>
     <t>OS</t>
   </si>
   <si>
+    <t>C:\kangxh\AzureLabs\Certs\mc-allenk-automation-spn.pem</t>
+  </si>
+  <si>
     <t>addressPrefixes</t>
   </si>
   <si>
@@ -466,7 +619,16 @@
     <t>10.3.0.0/16</t>
   </si>
   <si>
+    <t>mc-vnet-iac-dev</t>
+  </si>
+  <si>
     <t>rules</t>
+  </si>
+  <si>
+    <t>web, app, sqldb</t>
+  </si>
+  <si>
+    <t>47a639b4-f614-4e56-a2bf-6979f64ce5cf</t>
   </si>
   <si>
     <t>Resource Group</t>
@@ -576,12 +738,33 @@
     <t>objectName</t>
   </si>
   <si>
+    <t>mc-kv-iac-dev</t>
+  </si>
+  <si>
+    <t>d17b5bec-7daf-4ab0-b4e1-a17eef0fffa6</t>
+  </si>
+  <si>
+    <t>allenkdemo</t>
+  </si>
+  <si>
+    <t>0764cb57-add0-4f55-855d-3d700cc2d37b</t>
+  </si>
+  <si>
     <t>objectid</t>
   </si>
   <si>
     <t>all</t>
   </si>
   <si>
+    <t>Get, List, Update, Create, Import, Delete, Recover, Backup, Restore</t>
+  </si>
+  <si>
+    <t>Get, List, Set, Delete, Recover, Backup, Restore</t>
+  </si>
+  <si>
+    <t>Get, List, Update, Create, Import, Delete, Recover, ManageContacts, ManageIssuers, GetIssuers, ListIssuers, SetIssuers, DeleteIssuers</t>
+  </si>
+  <si>
     <t>New Secret</t>
   </si>
   <si>
@@ -594,6 +777,21 @@
     <t>newValue</t>
   </si>
   <si>
+    <t>dc8b19b4-4dfa-49e2-96c2-11672fc39670</t>
+  </si>
+  <si>
+    <t>mc-sql-iac-server</t>
+  </si>
+  <si>
+    <t>mc-sql-iac-db-01</t>
+  </si>
+  <si>
+    <t>mc-sql-iac-db-02</t>
+  </si>
+  <si>
+    <t>mc-sql-iac-db-03</t>
+  </si>
+  <si>
     <t>MS1</t>
   </si>
   <si>
@@ -633,6 +831,9 @@
     <t>Allow Azure internal Access</t>
   </si>
   <si>
+    <t>mc-mysql-iac-db1</t>
+  </si>
+  <si>
     <t>KeyVaultRG</t>
   </si>
   <si>
@@ -642,6 +843,21 @@
     <t>Secret</t>
   </si>
   <si>
+    <t>0fef2d1d-7012-4bd2-bd2a-0d6aa8a52247</t>
+  </si>
+  <si>
+    <t>mc-mysql-iac-svr1</t>
+  </si>
+  <si>
+    <t>mc-mysql-iac-svr2</t>
+  </si>
+  <si>
+    <t>mc-mysql-iac-db2</t>
+  </si>
+  <si>
+    <t>mc-mysql-iac-db3</t>
+  </si>
+  <si>
     <t>keyvaultRG</t>
   </si>
   <si>
@@ -651,6 +867,12 @@
     <t>secret</t>
   </si>
   <si>
+    <t>Username:KeyVaultRG:Keyvault:Secret</t>
+  </si>
+  <si>
+    <t>customValue</t>
+  </si>
+  <si>
     <t>keyvaultDescription</t>
   </si>
   <si>
@@ -687,61 +909,28 @@
     <t>standardImg</t>
   </si>
   <si>
+    <t>standard disk image using name format like: publisher,offer,sku</t>
+  </si>
+  <si>
     <t>nextHopIP</t>
   </si>
   <si>
     <t>nextHop</t>
   </si>
   <si>
-    <t>72f988bf-86f1-41af-91ab-2d7cd011db47</t>
-  </si>
-  <si>
-    <t>9c6835cb-2079-4f99-96f4-74029267e0df</t>
-  </si>
-  <si>
-    <t>187ee3fa-5f06-4d09-9154-f0755415e458</t>
-  </si>
-  <si>
-    <t>/data/infra-as-code/az-allenk-cli-automation.pem</t>
-  </si>
-  <si>
-    <t>Objectid</t>
-  </si>
-  <si>
-    <t>151708ca-fa3d-4eae-bc5a-964ce7675f6c</t>
-  </si>
-  <si>
-    <t>vpc</t>
-  </si>
-  <si>
-    <t>virtual private cloud</t>
-  </si>
-  <si>
-    <t>allenk-cli-automation</t>
-  </si>
-  <si>
-    <t>450e841a-2328-497e-8c1b-7ecc09d8371f</t>
-  </si>
-  <si>
-    <t>Strong password for vm template</t>
-  </si>
-  <si>
-    <t>Strong password for vmss template</t>
-  </si>
-  <si>
-    <t>Strong password for SQL and MySQL DB</t>
-  </si>
-  <si>
-    <t>southeastasia</t>
-  </si>
-  <si>
-    <t>10.0.9.0/24</t>
-  </si>
-  <si>
-    <t>to uat vnet</t>
-  </si>
-  <si>
-    <t>to prod vnet</t>
+    <t>mc-rg-fta-core</t>
+  </si>
+  <si>
+    <t>mc-rg-fta-vm</t>
+  </si>
+  <si>
+    <t>mc-kv-fta</t>
+  </si>
+  <si>
+    <t>mc-vnet-fta</t>
+  </si>
+  <si>
+    <t>servicefabric</t>
   </si>
   <si>
     <t>demox</t>
@@ -750,142 +939,70 @@
     <t>demoy</t>
   </si>
   <si>
-    <t>10.0.10.0/24</t>
-  </si>
-  <si>
-    <t>demox, demoy</t>
-  </si>
-  <si>
-    <t>https://allenklab.blob.core.windows.net/vhds/CentOSAzureImg.vhd</t>
-  </si>
-  <si>
-    <t>C:\kangxh\AzureLabs\Certs\az-allenk-cli-automation.pem</t>
-  </si>
-  <si>
-    <t>az-rg-iac-xxx</t>
-  </si>
-  <si>
-    <t>az-vnet-iac-xxx</t>
-  </si>
-  <si>
-    <t>az-avset-iac-xxx</t>
-  </si>
-  <si>
-    <t>az-nsg-iac-xxx</t>
-  </si>
-  <si>
-    <t>azvmiacxxx</t>
-  </si>
-  <si>
-    <t>azsaiacdiag</t>
-  </si>
-  <si>
-    <t>az-sql-iac-xxx</t>
-  </si>
-  <si>
-    <t>az-sql-iac-db-xxx</t>
-  </si>
-  <si>
-    <t>az-sql-iac-dw-xxx</t>
-  </si>
-  <si>
-    <t>fta</t>
-  </si>
-  <si>
-    <t>FastTrack Azure</t>
-  </si>
-  <si>
-    <t>az-rg-fta-core</t>
-  </si>
-  <si>
-    <t>application services</t>
-  </si>
-  <si>
-    <t>data science</t>
-  </si>
-  <si>
-    <t>az-rg-fta-vm</t>
-  </si>
-  <si>
-    <t>az-rg-fta-app</t>
-  </si>
-  <si>
-    <t>az-rg-fta-data</t>
-  </si>
-  <si>
-    <t>az-kv-fta</t>
-  </si>
-  <si>
-    <t>servicefabric</t>
-  </si>
-  <si>
-    <t>az-vnet-fta</t>
-  </si>
-  <si>
-    <t>az-nsg-fta-web</t>
-  </si>
-  <si>
-    <t>az-udr-fta</t>
-  </si>
-  <si>
-    <t>az-udr-fta-to-ext</t>
-  </si>
-  <si>
-    <t>az-udr-fta-to-vnet</t>
-  </si>
-  <si>
-    <t>azvmftaweb</t>
-  </si>
-  <si>
-    <t>azvmftaapp</t>
-  </si>
-  <si>
-    <t>az-avset-fta-web</t>
-  </si>
-  <si>
-    <t>az-avset-fta-app</t>
-  </si>
-  <si>
-    <t>azsaftavmdiag</t>
-  </si>
-  <si>
-    <t>azvmftasdb</t>
-  </si>
-  <si>
-    <t>az-avset-fta-sdb</t>
-  </si>
-  <si>
-    <t>10.0.2.11</t>
-  </si>
-  <si>
-    <t>10.0.3.11</t>
-  </si>
-  <si>
-    <t>10.0.4.11</t>
-  </si>
-  <si>
-    <t>az-rg-fta-db</t>
-  </si>
-  <si>
-    <t>az-mysql-fta</t>
-  </si>
-  <si>
-    <t>az-mysql-fta-db1</t>
-  </si>
-  <si>
-    <t>az-mysql-fta-db2</t>
-  </si>
-  <si>
-    <t>az-sql-fta</t>
-  </si>
-  <si>
-    <t>az-sql-fta-db-01</t>
-  </si>
-  <si>
-    <t>az-sql-fta-db-02</t>
-  </si>
-  <si>
-    <t>az-sql-fta-db-03</t>
+    <t>10.1.9.0/25</t>
+  </si>
+  <si>
+    <t>10.1.10.0/26</t>
+  </si>
+  <si>
+    <t>mc-nsg-fta-web</t>
+  </si>
+  <si>
+    <t>mc-nsg-fta-db</t>
+  </si>
+  <si>
+    <t>mc-udr-fta</t>
+  </si>
+  <si>
+    <t>mc-udr-fta-to-az</t>
+  </si>
+  <si>
+    <t>mc-udr-fta-to-msdn</t>
+  </si>
+  <si>
+    <t>to 10.0/16</t>
+  </si>
+  <si>
+    <t>to 10.3/16</t>
+  </si>
+  <si>
+    <t>mcvmftawin</t>
+  </si>
+  <si>
+    <t>mcvmftaoss</t>
+  </si>
+  <si>
+    <t>mc-avset-fta-win</t>
+  </si>
+  <si>
+    <t>mc-avset-fta-oss</t>
+  </si>
+  <si>
+    <t>mcsaftavmdiag</t>
+  </si>
+  <si>
+    <t>10.1.2.10</t>
+  </si>
+  <si>
+    <t>10.1.2.20</t>
+  </si>
+  <si>
+    <t>https://allenklab.blob.core.chinacloudapi.cn/vhds/Win2016Img.vhd</t>
+  </si>
+  <si>
+    <t>Allow_RDP_Internet</t>
+  </si>
+  <si>
+    <t>Allow_SSH_Internet</t>
+  </si>
+  <si>
+    <t>allenk_automation_win</t>
+  </si>
+  <si>
+    <t>allenk_automation_linux</t>
+  </si>
+  <si>
+    <t>mc-rg-fta-data</t>
   </si>
 </sst>
 </file>
@@ -1148,17 +1265,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1482,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FACF3B-E68C-49F0-9A47-F9BBC3152013}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1498,164 +1615,150 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="20" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="20"/>
+        <v>85</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="20" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="20"/>
+        <v>86</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="20" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="20"/>
+        <v>88</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="1:3" s="11" customFormat="1"/>
     <row r="7" spans="1:3">
       <c r="A7" s="21" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="21" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>234</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="21" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>235</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="21" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>236</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="21" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>238</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="21" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>237</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="21" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>237</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="21" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>239</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="21" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>240</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="21" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>241</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="21" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>242</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="16"/>
@@ -1665,37 +1768,82 @@
     <row r="19" spans="1:3" s="11" customFormat="1"/>
     <row r="20" spans="1:3">
       <c r="A20" s="22" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="22" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>218</v>
-      </c>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="19"/>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C23" s="19"/>
+    <row r="26" spans="1:3">
+      <c r="A26" s="13">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="13">
+        <v>2</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="13">
+        <v>3</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="13">
+        <v>4</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="13">
+        <v>5</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="13">
+        <v>6</v>
+      </c>
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="13">
+        <v>7</v>
+      </c>
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="13">
+        <v>8</v>
+      </c>
+      <c r="B33" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1705,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD3BF6B-20D9-4585-8ED8-1463BB7E1471}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1728,57 +1876,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="30" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="31" t="s">
-        <v>268</v>
+        <v>115</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>224</v>
+        <v>262</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="E2" s="29">
         <v>5.7</v>
@@ -1787,39 +1935,39 @@
         <v>1</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="29" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>268</v>
+        <v>115</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>224</v>
+        <v>262</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="E3" s="29">
         <v>5.7</v>
@@ -1828,25 +1976,66 @@
         <v>1</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="H3" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="29" customFormat="1">
+      <c r="A4" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="29">
+        <v>5.7</v>
+      </c>
+      <c r="F4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>181</v>
+      <c r="H4" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +2049,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1882,46 +2071,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="30" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="O1" s="30" t="s">
         <v>2</v>
@@ -1929,136 +2118,136 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="31" t="s">
-        <v>268</v>
+        <v>115</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>224</v>
+        <v>240</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" s="11" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>268</v>
+        <v>115</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>224</v>
+        <v>240</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" s="11" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>268</v>
+        <v>115</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>224</v>
+        <v>240</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="O4" s="13"/>
     </row>
@@ -2073,7 +2262,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2091,10 +2280,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>3</v>
@@ -2103,138 +2292,136 @@
         <v>1</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
+        <v>123</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="25" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>124</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>79</v>
+        <v>126</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>132</v>
+        <v>74</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -2243,10 +2430,10 @@
     <row r="7" spans="1:11">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
+        <v>125</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -2255,10 +2442,10 @@
     <row r="8" spans="1:11">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>75</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -2267,10 +2454,10 @@
     <row r="9" spans="1:11">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -2279,8 +2466,8 @@
     <row r="10" spans="1:11">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="7" t="s">
-        <v>228</v>
+      <c r="C10" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -2289,8 +2476,8 @@
     <row r="11" spans="1:11">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="7" t="s">
-        <v>229</v>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -2299,8 +2486,8 @@
     <row r="12" spans="1:11">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="7" t="s">
-        <v>11</v>
+      <c r="C12" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -2308,9 +2495,6 @@
     </row>
     <row r="13" spans="1:11">
       <c r="B13" s="13"/>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2320,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89DD4EF-EA99-49BE-99A4-8354913F615F}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2334,84 +2518,74 @@
     <col min="4" max="4" width="39.21875" customWidth="1"/>
     <col min="5" max="5" width="41.77734375" customWidth="1"/>
     <col min="6" max="6" width="53.77734375" customWidth="1"/>
-    <col min="7" max="7" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1">
-      <c r="A1" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>99</v>
+    <row r="1" spans="1:6" s="11" customFormat="1">
+      <c r="A1" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>212</v>
+      <c r="D2" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>195</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="11" customFormat="1">
       <c r="A3" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>212</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="11" customFormat="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="11" customFormat="1">
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:7" s="11" customFormat="1"/>
-    <row r="8" spans="1:7" ht="15.6" customHeight="1"/>
-    <row r="9" spans="1:7" ht="16.2" customHeight="1"/>
+    <row r="5" spans="1:6" s="11" customFormat="1"/>
+    <row r="8" spans="1:6" ht="15.6" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.2" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2420,22 +2594,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B2EED0-F8A3-4EAB-A0E2-E8FB8977E89E}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.109375" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="3" max="3" width="60.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -2446,64 +2620,38 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="12" spans="1:3" s="11" customFormat="1"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="11" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{1885BC1C-48C1-4423-ABA0-034E31BD2799}">
@@ -2513,15 +2661,27 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EA263940-8EDF-49D7-8D4A-414373BF9641}">
+          <x14:formula1>
+            <xm:f>'Properties List'!$D:$D</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65437506-71EE-4623-BA3E-4F0661C58DED}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2532,94 +2692,98 @@
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="25.77734375" customWidth="1"/>
     <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" style="29" customWidth="1"/>
     <col min="11" max="11" width="19.33203125" customWidth="1"/>
     <col min="12" max="12" width="18.44140625" customWidth="1"/>
     <col min="13" max="13" width="13.44140625" customWidth="1"/>
-    <col min="14" max="14" width="39.5546875" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>270</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="14" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="14" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="3"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1">
+    <row r="5" spans="1:15" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="B5" s="7" t="b">
         <v>1</v>
@@ -2628,148 +2792,192 @@
       <c r="D5" s="3"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="14" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="B6" s="7" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="14" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="B7" s="7" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="D8" s="14" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="11" customFormat="1">
-      <c r="C9" s="29"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="86.4">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="D9" s="27" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>220</v>
+        <v>228</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>227</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:14" s="11" customFormat="1">
+        <v>234</v>
+      </c>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:15" s="11" customFormat="1">
       <c r="C10" s="29"/>
       <c r="D10" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>219</v>
+        <v>288</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="F10" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:15" s="29" customFormat="1">
+      <c r="D11" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:15" s="11" customFormat="1">
+      <c r="C12" s="29"/>
+      <c r="D12" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="K13" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="K14" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="K15" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="K16" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="K11" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="K12" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="K13" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="K14" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>223</v>
-      </c>
+      <c r="M16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2781,7 +2989,7 @@
           <x14:formula1>
             <xm:f>'Properties List'!$K$2:$K$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M1:M14 L15 M16:M1048576</xm:sqref>
+          <xm:sqref>L17 M1:M16 M18:M1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2791,10 +2999,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66F6C2E-1DAB-4048-8E28-1F02F50FBD7B}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2809,230 +3017,230 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1">
       <c r="A2" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+        <v>33</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1">
       <c r="A3" s="14" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1">
       <c r="A6" s="14" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="29" customFormat="1">
       <c r="A7" s="30" t="s">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="11" customFormat="1">
       <c r="C8" s="14" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="11" customFormat="1">
       <c r="C9" s="14" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1">
       <c r="C10" s="30" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" s="11" customFormat="1">
       <c r="C11" s="30" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1">
       <c r="C12" s="30" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1">
       <c r="C13" s="30" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1">
       <c r="C14" s="30" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1">
       <c r="C15" s="30" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1">
       <c r="C16" s="30" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" s="29" customFormat="1">
       <c r="C17" s="30" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" s="29" customFormat="1">
       <c r="C18" s="30" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6">
       <c r="C19" s="30" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="30" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F20" s="13"/>
     </row>
@@ -3056,13 +3264,6 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3072,10 +3273,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CB9A08-700A-4F46-9866-C465156BD9E9}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3101,338 +3302,597 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+        <v>286</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3"/>
       <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:17" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="C4" s="3"/>
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:17" s="29" customFormat="1">
       <c r="A5" s="30" t="s">
-        <v>202</v>
+        <v>276</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="14" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>201</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="C7" s="14" t="s">
-        <v>254</v>
+      <c r="C7" s="30" t="s">
+        <v>295</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="8">
-        <v>3389</v>
+        <v>74</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="K7" s="8">
         <v>200</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:17">
       <c r="C8" s="30" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="I8" s="8">
-        <v>22</v>
+        <v>443</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="K8" s="8">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:17">
       <c r="C9" s="30" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>116</v>
+        <v>150</v>
+      </c>
+      <c r="I9" s="8">
+        <v>80</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="K9" s="8">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" s="29" customFormat="1">
       <c r="C10" s="30" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>126</v>
+        <v>310</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="I10" s="8">
-        <v>443</v>
+        <v>3389</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="K10" s="8">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" s="29" customFormat="1">
       <c r="C11" s="30" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>127</v>
+        <v>311</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="I11" s="8">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="K11" s="8">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:17">
       <c r="N12" s="14" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="N13" s="14" t="s">
-        <v>254</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="11" customFormat="1">
+      <c r="M13" s="29"/>
+      <c r="N13" s="30" t="s">
+        <v>295</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="13" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="14" spans="1:17" s="11" customFormat="1">
+      <c r="A14" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+    </row>
+    <row r="15" spans="1:17" s="11" customFormat="1">
+      <c r="A15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:17" s="11" customFormat="1">
+      <c r="A16" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="1:17" s="29" customFormat="1">
+      <c r="A17" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="C18" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="C19" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1433</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="8">
+        <v>100</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="C20" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" s="8">
+        <v>200</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="C21" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" s="8">
+        <v>210</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="C22" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" s="8">
+        <v>200</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="C23" s="14"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="N24" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="N25" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K13 K1 I14:I1048576" xr:uid="{13621260-432B-4BFD-8DC6-F5BBC64B2C4E}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I24 K16:K23 K1 I26:I1048576 K6:K13" xr:uid="{13621260-432B-4BFD-8DC6-F5BBC64B2C4E}">
       <formula1>100</formula1>
       <formula2>60000</formula2>
     </dataValidation>
@@ -3446,25 +3906,25 @@
           <x14:formula1>
             <xm:f>'Properties List'!$H:$H</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I5 L1 L6:L13</xm:sqref>
+          <xm:sqref>I2:I5 L16:L23 I14:I17 L1 L6:L13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E5C207E7-BC5D-472E-8727-115676681EFB}">
           <x14:formula1>
             <xm:f>'Properties List'!$I:$I</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G9 G12:G1048576</xm:sqref>
+          <xm:sqref>G26:G1048576 G1:G7 G12:G24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BEFAC9C7-CCC3-4A07-9616-0BB56399C24F}">
           <x14:formula1>
             <xm:f>'Properties List'!$G:$G</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H1048576</xm:sqref>
+          <xm:sqref>H22:H24 H26:H1048576 H1:H18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{095F0657-A849-4CFB-B574-A53B77C40DC5}">
           <x14:formula1>
             <xm:f>'Properties List'!$J:$J</xm:f>
           </x14:formula1>
-          <xm:sqref>J1:J1048576</xm:sqref>
+          <xm:sqref>J26:J1048576 J1:J24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3476,8 +3936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71DACD7-923E-41EE-A168-21177D0CC449}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3485,7 +3945,7 @@
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
     <col min="2" max="2" width="24.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
     <col min="5" max="5" width="21.21875" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" customWidth="1"/>
@@ -3498,98 +3958,98 @@
   <sheetData>
     <row r="1" spans="1:18" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K1" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="O1" s="6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="11" customFormat="1">
       <c r="A2" s="30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+        <v>286</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:18" s="11" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:18" s="29" customFormat="1">
       <c r="A5" s="30" t="s">
-        <v>202</v>
+        <v>276</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
@@ -3597,90 +4057,90 @@
     <row r="6" spans="1:18" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="12"/>
       <c r="C6" s="14" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>201</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="C7" s="14" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>226</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="C8" s="14" t="s">
-        <v>255</v>
+      <c r="C8" s="30" t="s">
+        <v>297</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>227</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="I9" s="14" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="I10" s="30" t="s">
-        <v>255</v>
+      <c r="I10" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -3734,41 +4194,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866ACBC7-9C85-425D-9380-8119BB794432}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68429E91-ED41-4E27-A447-875D29420820}">
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" style="29" customWidth="1"/>
     <col min="8" max="8" width="18.109375" style="29" customWidth="1"/>
     <col min="9" max="9" width="22.5546875" customWidth="1"/>
     <col min="10" max="10" width="63.88671875" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.21875" style="29" customWidth="1"/>
     <col min="12" max="12" width="25" style="10" customWidth="1"/>
     <col min="13" max="13" width="20.5546875" customWidth="1"/>
     <col min="14" max="14" width="17.33203125" customWidth="1"/>
@@ -3782,7 +4227,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -3791,122 +4236,122 @@
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>206</v>
+        <v>280</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="W1" s="6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="13">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="36">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G2" s="34">
-        <v>1</v>
-      </c>
-      <c r="H2" s="34">
+      <c r="H2" s="36">
         <v>31</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="8" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -3914,122 +4359,86 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="D3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="13">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" s="36">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G3" s="34">
-        <v>1</v>
-      </c>
-      <c r="H3" s="34">
-        <v>31</v>
+      <c r="H3" s="36">
+        <v>127</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>232</v>
+        <v>72</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="8" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>253</v>
+        <v>286</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>251</v>
+        <v>18</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="30" t="s">
-        <v>263</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="13">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G4" s="34">
-        <v>1</v>
-      </c>
-      <c r="H4" s="34">
-        <v>31</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>232</v>
-      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>160</v>
-      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
@@ -4037,11 +4446,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{480092A1-4AD8-4EE9-AD19-B02A5964B82A}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{E224B0BE-11B9-47A1-982C-6DD22BA30DC3}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{397F3374-DE38-43A9-BF5F-38BFC8F77C57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -4067,4 +4474,222 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FE7611-FF07-4817-8846-44273D8303DC}">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="52.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" customWidth="1"/>
+    <col min="4" max="4" width="100.21875" customWidth="1"/>
+    <col min="5" max="5" width="55.88671875" customWidth="1"/>
+    <col min="6" max="6" width="45.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="7">
+        <v>80</v>
+      </c>
+      <c r="E6" s="7">
+        <v>81</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="14.4" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allenk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C541C93B-C03A-42B1-94B9-0E0A5DF0DB01}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F895692C-44A1-48A1-9897-155138DF8909}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25896" windowHeight="8760" activeTab="6" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="4" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>10.0.3.0/24</t>
   </si>
   <si>
-    <t>10.0.200.0/24</t>
-  </si>
-  <si>
     <t>allenk</t>
   </si>
   <si>
@@ -1003,6 +1000,9 @@
   </si>
   <si>
     <t>mc-rg-fta-data</t>
+  </si>
+  <si>
+    <t>10.1.200.0/24</t>
   </si>
 </sst>
 </file>
@@ -1615,148 +1615,148 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C5" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="11" customFormat="1"/>
     <row r="7" spans="1:3">
       <c r="A7" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>96</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>97</v>
       </c>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>94</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>95</v>
       </c>
       <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>99</v>
       </c>
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>102</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>103</v>
       </c>
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>104</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>105</v>
       </c>
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>106</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>107</v>
       </c>
       <c r="C17" s="21"/>
     </row>
@@ -1768,17 +1768,17 @@
     <row r="19" spans="1:3" s="11" customFormat="1"/>
     <row r="20" spans="1:3">
       <c r="A20" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>111</v>
       </c>
       <c r="C21" s="22"/>
     </row>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1800,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1808,7 +1808,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1876,57 +1876,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>248</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>249</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>254</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E2" s="29">
         <v>5.7</v>
@@ -1935,39 +1935,39 @@
         <v>1</v>
       </c>
       <c r="G2" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="L2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>246</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="29" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E3" s="29">
         <v>5.7</v>
@@ -1976,39 +1976,39 @@
         <v>1</v>
       </c>
       <c r="G3" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="H3" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="L3" s="29" t="s">
+      <c r="M3" s="29" t="s">
         <v>246</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="29" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E4" s="29">
         <v>5.7</v>
@@ -2017,25 +2017,25 @@
         <v>1</v>
       </c>
       <c r="G4" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="L4" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="L4" s="29" t="s">
+      <c r="M4" s="29" t="s">
         <v>246</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2071,46 +2071,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="J1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>205</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>206</v>
       </c>
       <c r="O1" s="30" t="s">
         <v>2</v>
@@ -2118,136 +2118,136 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="G2" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" s="11" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" s="11" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="K4" s="13" t="s">
+      <c r="L4" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="M4" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="O4" s="13"/>
     </row>
@@ -2280,10 +2280,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>3</v>
@@ -2292,25 +2292,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2318,67 +2318,67 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>6</v>
@@ -2386,22 +2386,22 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>7</v>
@@ -2409,16 +2409,16 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>8</v>
@@ -2430,7 +2430,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>9</v>
@@ -2442,7 +2442,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>10</v>
@@ -2454,7 +2454,7 @@
     <row r="9" spans="1:11">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>11</v>
@@ -2522,62 +2522,62 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1">
       <c r="A3" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1">
@@ -2609,7 +2609,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -2620,35 +2620,35 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="11" customFormat="1"/>
@@ -2705,66 +2705,66 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="J1" s="30" t="s">
+      <c r="K1" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="O1" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="11"/>
@@ -2772,10 +2772,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="3"/>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="5" spans="1:15" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="7" t="b">
         <v>1</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="7" t="b">
         <v>1</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7" s="7" t="b">
         <v>1</v>
@@ -2814,167 +2814,167 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="D8" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="H8" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>224</v>
-      </c>
       <c r="J8" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="86.4">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="D9" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G9" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="I9" s="26" t="s">
         <v>233</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>234</v>
       </c>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:15" s="11" customFormat="1">
       <c r="C10" s="29"/>
       <c r="D10" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:15" s="29" customFormat="1">
       <c r="D11" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:15" s="11" customFormat="1">
       <c r="C12" s="29"/>
       <c r="D12" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:15">
       <c r="K13" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="K14" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
     </row>
     <row r="15" spans="1:15">
       <c r="K15" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:15">
       <c r="K16" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
@@ -3001,8 +3001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66F6C2E-1DAB-4048-8E28-1F02F50FBD7B}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3017,30 +3017,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1">
       <c r="A2" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -3048,199 +3048,199 @@
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1">
       <c r="A3" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1">
       <c r="A6" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="29" customFormat="1">
       <c r="A7" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="11" customFormat="1">
       <c r="C8" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="11" customFormat="1">
       <c r="C9" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1">
       <c r="C10" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" s="11" customFormat="1">
       <c r="C11" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1">
       <c r="C12" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1">
       <c r="C13" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1">
       <c r="C14" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1">
       <c r="C15" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1">
       <c r="C16" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="E16" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" s="29" customFormat="1">
       <c r="C17" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" s="29" customFormat="1">
       <c r="C18" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6">
       <c r="C19" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="F20" s="13"/>
     </row>
@@ -3302,63 +3302,63 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>167</v>
-      </c>
       <c r="O1" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -3378,255 +3378,255 @@
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3"/>
       <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:17" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C4" s="3"/>
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:17" s="29" customFormat="1">
       <c r="A5" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="M6" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="C7" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K7" s="8">
         <v>200</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:17">
       <c r="C8" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" s="8">
         <v>443</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K8" s="8">
         <v>100</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:17">
       <c r="C9" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I9" s="8">
         <v>80</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K9" s="8">
         <v>110</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:17" s="29" customFormat="1">
       <c r="C10" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I10" s="8">
         <v>3389</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K10" s="8">
         <v>120</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:17" s="29" customFormat="1">
       <c r="C11" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I11" s="8">
         <v>22</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K11" s="8">
         <v>130</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:17">
       <c r="N12" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="11" customFormat="1">
       <c r="M13" s="29"/>
       <c r="N13" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="13" t="s">
         <v>6</v>
@@ -3634,10 +3634,10 @@
     </row>
     <row r="14" spans="1:17" s="11" customFormat="1">
       <c r="A14" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -3660,192 +3660,192 @@
         <v>1</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3"/>
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:17" s="11" customFormat="1">
       <c r="A16" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C16" s="3"/>
       <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:17" s="29" customFormat="1">
       <c r="A17" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:17">
       <c r="C18" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="G18" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="H18" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="I18" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="J18" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="K18" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="K18" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>145</v>
-      </c>
       <c r="M18" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="C19" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I19" s="8">
         <v>1433</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K19" s="8">
         <v>100</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:17">
       <c r="C20" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K20" s="8">
         <v>200</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:17">
       <c r="C21" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K21" s="8">
         <v>210</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:17">
       <c r="C22" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K22" s="8">
         <v>200</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M22" s="8"/>
     </row>
@@ -3864,30 +3864,30 @@
     </row>
     <row r="24" spans="1:17">
       <c r="N24" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="N25" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3936,7 +3936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71DACD7-923E-41EE-A168-21177D0CC449}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -3958,66 +3958,66 @@
   <sheetData>
     <row r="1" spans="1:18" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>275</v>
-      </c>
       <c r="I1" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="11" customFormat="1">
       <c r="A2" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -4032,24 +4032,24 @@
     </row>
     <row r="3" spans="1:18" s="11" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:18" s="29" customFormat="1">
       <c r="A5" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
@@ -4057,90 +4057,90 @@
     <row r="6" spans="1:18" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="12"/>
       <c r="C6" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="C7" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="C8" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="I9" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="I10" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4227,7 +4227,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -4236,73 +4236,73 @@
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="R1" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="U1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -4311,7 +4311,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G2" s="36">
         <v>1</v>
@@ -4320,38 +4320,38 @@
         <v>31</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -4359,11 +4359,11 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -4372,7 +4372,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G3" s="36">
         <v>1</v>
@@ -4381,38 +4381,38 @@
         <v>127</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -4496,58 +4496,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4555,26 +4555,26 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4582,45 +4582,45 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="7">
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="7">
         <v>80</v>
@@ -4632,16 +4632,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
@@ -4650,42 +4650,42 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="14.4" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allenk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F895692C-44A1-48A1-9897-155138DF8909}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D8188A-A8BA-48EE-A41C-CBBBBED8FFE7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="4" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="11" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="312">
   <si>
     <t>ResourceGroup</t>
   </si>
@@ -383,9 +383,6 @@
   </si>
   <si>
     <t>mc-rg-iac-sf</t>
-  </si>
-  <si>
-    <t>mc-rg-iac-db</t>
   </si>
   <si>
     <t>use lower case</t>
@@ -780,15 +777,6 @@
     <t>mc-sql-iac-server</t>
   </si>
   <si>
-    <t>mc-sql-iac-db-01</t>
-  </si>
-  <si>
-    <t>mc-sql-iac-db-02</t>
-  </si>
-  <si>
-    <t>mc-sql-iac-db-03</t>
-  </si>
-  <si>
     <t>MS1</t>
   </si>
   <si>
@@ -828,9 +816,6 @@
     <t>Allow Azure internal Access</t>
   </si>
   <si>
-    <t>mc-mysql-iac-db1</t>
-  </si>
-  <si>
     <t>KeyVaultRG</t>
   </si>
   <si>
@@ -846,15 +831,6 @@
     <t>mc-mysql-iac-svr1</t>
   </si>
   <si>
-    <t>mc-mysql-iac-svr2</t>
-  </si>
-  <si>
-    <t>mc-mysql-iac-db2</t>
-  </si>
-  <si>
-    <t>mc-mysql-iac-db3</t>
-  </si>
-  <si>
     <t>keyvaultRG</t>
   </si>
   <si>
@@ -1003,6 +979,21 @@
   </si>
   <si>
     <t>10.1.200.0/24</t>
+  </si>
+  <si>
+    <t>mc-mysql-fta-db1</t>
+  </si>
+  <si>
+    <t>mc-mysql-fta-db2</t>
+  </si>
+  <si>
+    <t>mc-sql-fta-db-01</t>
+  </si>
+  <si>
+    <t>mc-sql-fta-db-02</t>
+  </si>
+  <si>
+    <t>mc-sql-fta-db-03</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1593,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1792,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1800,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1808,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1816,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1824,7 +1815,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1853,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD3BF6B-20D9-4585-8ED8-1463BB7E1471}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1876,57 +1867,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="30" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>250</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="31" t="s">
-        <v>114</v>
+        <v>305</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E2" s="29">
         <v>5.7</v>
@@ -1935,39 +1926,39 @@
         <v>1</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>112</v>
+        <v>277</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="29" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>114</v>
+        <v>305</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E3" s="29">
         <v>5.7</v>
@@ -1976,66 +1967,25 @@
         <v>1</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>112</v>
+        <v>277</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="29" customFormat="1">
-      <c r="A4" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="29">
-        <v>5.7</v>
-      </c>
-      <c r="F4" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +1999,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2071,46 +2021,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="J1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>204</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>205</v>
       </c>
       <c r="O1" s="30" t="s">
         <v>2</v>
@@ -2118,136 +2068,136 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="31" t="s">
-        <v>114</v>
+        <v>305</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" s="11" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>114</v>
+        <v>305</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" s="11" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>114</v>
+        <v>305</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="K4" s="13" t="s">
+      <c r="L4" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="M4" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="O4" s="13"/>
     </row>
@@ -2261,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6043D2-FAF4-4CC6-BCA2-883A8FA8E76B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2295,22 +2245,22 @@
         <v>79</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2322,22 +2272,22 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2345,7 +2295,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>5</v>
@@ -2355,22 +2305,22 @@
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2378,7 +2328,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>6</v>
@@ -2386,13 +2336,13 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K4" s="7"/>
     </row>
@@ -2401,7 +2351,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>7</v>
@@ -2409,10 +2359,10 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2430,7 +2380,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>9</v>
@@ -2467,7 +2417,7 @@
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -2522,62 +2472,62 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1">
       <c r="A3" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1">
@@ -2620,7 +2570,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>30</v>
@@ -2631,7 +2581,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>30</v>
@@ -2642,13 +2592,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="11" customFormat="1"/>
@@ -2708,46 +2658,46 @@
         <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>223</v>
-      </c>
       <c r="J1" s="30" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2755,13 +2705,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>30</v>
@@ -2772,10 +2722,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="3"/>
@@ -2783,7 +2733,7 @@
     </row>
     <row r="5" spans="1:15" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="7" t="b">
         <v>1</v>
@@ -2794,7 +2744,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="7" t="b">
         <v>1</v>
@@ -2803,7 +2753,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" s="7" t="b">
         <v>1</v>
@@ -2814,167 +2764,167 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="D8" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="H8" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>223</v>
-      </c>
       <c r="J8" s="30" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="86.4">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="D9" s="27" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G9" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="I9" s="26" t="s">
         <v>232</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>233</v>
       </c>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:15" s="11" customFormat="1">
       <c r="C10" s="29"/>
       <c r="D10" s="27" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:15" s="29" customFormat="1">
       <c r="D11" s="27" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:15" s="11" customFormat="1">
       <c r="C12" s="29"/>
       <c r="D12" s="27" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:15">
       <c r="K13" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="K14" s="14" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
     </row>
     <row r="15" spans="1:15">
       <c r="K15" s="30" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:15">
       <c r="K16" s="30" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
@@ -3001,8 +2951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66F6C2E-1DAB-4048-8E28-1F02F50FBD7B}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3020,19 +2970,19 @@
         <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1">
@@ -3040,7 +2990,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -3048,7 +2998,7 @@
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1">
       <c r="A3" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>30</v>
@@ -3056,191 +3006,191 @@
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1">
       <c r="A6" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="29" customFormat="1">
       <c r="A7" s="30" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="11" customFormat="1">
       <c r="C8" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="11" customFormat="1">
       <c r="C9" s="14" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1">
       <c r="C10" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" s="11" customFormat="1">
       <c r="C11" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1">
       <c r="C12" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1">
       <c r="C13" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1">
       <c r="C14" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1">
       <c r="C15" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1">
       <c r="C16" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" s="29" customFormat="1">
       <c r="C17" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" s="29" customFormat="1">
       <c r="C18" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6">
       <c r="C19" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F20" s="13"/>
     </row>
@@ -3305,43 +3255,43 @@
         <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" s="30" t="s">
         <v>165</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>166</v>
       </c>
       <c r="O1" s="30" t="s">
         <v>32</v>
@@ -3350,7 +3300,7 @@
         <v>67</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3358,7 +3308,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -3378,7 +3328,7 @@
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>30</v>
@@ -3388,224 +3338,224 @@
     </row>
     <row r="4" spans="1:17" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C4" s="3"/>
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:17" s="29" customFormat="1">
       <c r="A5" s="30" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="M6" s="30" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="C7" s="30" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>73</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K7" s="8">
         <v>200</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:17">
       <c r="C8" s="30" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>73</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I8" s="8">
         <v>443</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K8" s="8">
         <v>100</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:17">
       <c r="C9" s="30" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>73</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I9" s="8">
         <v>80</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K9" s="8">
         <v>110</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:17" s="29" customFormat="1">
       <c r="C10" s="30" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>73</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I10" s="8">
         <v>3389</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K10" s="8">
         <v>120</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:17" s="29" customFormat="1">
       <c r="C11" s="30" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>73</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I11" s="8">
         <v>22</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K11" s="8">
         <v>130</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:17">
       <c r="N12" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O12" s="14" t="s">
         <v>32</v>
@@ -3614,19 +3564,19 @@
         <v>67</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="11" customFormat="1">
       <c r="M13" s="29"/>
       <c r="N13" s="30" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="13" t="s">
         <v>6</v>
@@ -3637,7 +3587,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -3667,185 +3617,185 @@
     </row>
     <row r="16" spans="1:17" s="11" customFormat="1">
       <c r="A16" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C16" s="3"/>
       <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:17" s="29" customFormat="1">
       <c r="A17" s="30" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:17">
       <c r="C18" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="G18" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="H18" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="I18" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="J18" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="K18" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="K18" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>144</v>
-      </c>
       <c r="M18" s="30" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="C19" s="14" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I19" s="8">
         <v>1433</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K19" s="8">
         <v>100</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:17">
       <c r="C20" s="30" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K20" s="8">
         <v>200</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:17">
       <c r="C21" s="30" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K21" s="8">
         <v>210</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:17">
       <c r="C22" s="30" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>73</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K22" s="8">
         <v>200</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M22" s="8"/>
     </row>
@@ -3864,7 +3814,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="N24" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O24" s="14" t="s">
         <v>32</v>
@@ -3873,21 +3823,21 @@
         <v>67</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="N25" s="30" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3961,28 +3911,28 @@
         <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>32</v>
@@ -3991,7 +3941,7 @@
         <v>67</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>42</v>
@@ -4017,7 +3967,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -4032,7 +3982,7 @@
     </row>
     <row r="3" spans="1:18" s="11" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>30</v>
@@ -4040,16 +3990,16 @@
     </row>
     <row r="4" spans="1:18" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:18" s="29" customFormat="1">
       <c r="A5" s="30" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
@@ -4057,30 +4007,30 @@
     <row r="6" spans="1:18" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="12"/>
       <c r="C6" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="C7" s="14" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>4</v>
@@ -4092,18 +4042,18 @@
         <v>80</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="C8" s="30" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>80</v>
@@ -4112,12 +4062,12 @@
         <v>80</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="I9" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>32</v>
@@ -4126,21 +4076,21 @@
         <v>67</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="I10" s="14" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4198,7 +4148,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4239,16 +4189,16 @@
         <v>63</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>21</v>
@@ -4257,7 +4207,7 @@
         <v>65</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>66</v>
@@ -4278,13 +4228,13 @@
         <v>70</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="U1" s="6" t="s">
         <v>45</v>
@@ -4298,11 +4248,11 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -4311,7 +4261,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G2" s="36">
         <v>1</v>
@@ -4323,35 +4273,35 @@
         <v>23</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="8" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -4359,11 +4309,11 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -4372,7 +4322,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G3" s="36">
         <v>1</v>
@@ -4388,31 +4338,31 @@
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="8" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -4481,7 +4431,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4574,7 +4524,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4604,7 +4554,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>19</v>
@@ -4620,7 +4570,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="7">
         <v>80</v>
@@ -4641,7 +4591,7 @@
         <v>112</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
@@ -4653,7 +4603,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
@@ -4662,10 +4612,10 @@
         <v>112</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="14.4" customHeight="1">

--- a/AzureEnv.xlsx
+++ b/AzureEnv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allenk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D8188A-A8BA-48EE-A41C-CBBBBED8FFE7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6743870-8B01-40A7-B7E0-572DBC8644CD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="13800" activeTab="11" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21864" windowHeight="8760" activeTab="7" xr2:uid="{09796E40-FEC8-4678-B636-BC32BCEC3D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Name" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="323">
   <si>
     <t>ResourceGroup</t>
   </si>
@@ -88,12 +88,36 @@
     <t>GatewaySubnet</t>
   </si>
   <si>
+    <t>10.0.1.0/24</t>
+  </si>
+  <si>
     <t>10.0.2.0/24</t>
   </si>
   <si>
     <t>10.0.3.0/24</t>
   </si>
   <si>
+    <t>10.0.4.0/24</t>
+  </si>
+  <si>
+    <t>10.0.5.0/24</t>
+  </si>
+  <si>
+    <t>10.0.6.0/24</t>
+  </si>
+  <si>
+    <t>10.0.7.0/24</t>
+  </si>
+  <si>
+    <t>10.0.8.0/24</t>
+  </si>
+  <si>
+    <t>10.0.100.0/24</t>
+  </si>
+  <si>
+    <t>10.0.200.0/24</t>
+  </si>
+  <si>
     <t>allenk</t>
   </si>
   <si>
@@ -226,6 +250,12 @@
     <t>H</t>
   </si>
   <si>
+    <t>10.0.2.10</t>
+  </si>
+  <si>
+    <t>10.0.3.10</t>
+  </si>
+  <si>
     <t>vNetRG</t>
   </si>
   <si>
@@ -280,12 +310,21 @@
     <t>virtual machine</t>
   </si>
   <si>
+    <t>service fabric</t>
+  </si>
+  <si>
     <t>IP Range</t>
   </si>
   <si>
     <t>10.0.100.100</t>
   </si>
   <si>
+    <t xml:space="preserve">to UAT </t>
+  </si>
+  <si>
+    <t>to Production</t>
+  </si>
+  <si>
     <t>mc</t>
   </si>
   <si>
@@ -382,15 +421,36 @@
     <t>mc-rg-iac-basic</t>
   </si>
   <si>
+    <t>mc-rg-iac-vm</t>
+  </si>
+  <si>
     <t>mc-rg-iac-sf</t>
   </si>
   <si>
+    <t>mc-rg-iac-db</t>
+  </si>
+  <si>
+    <t>mc-vm-iacweb</t>
+  </si>
+  <si>
+    <t>mc-vm-iacapp</t>
+  </si>
+  <si>
     <t>use lower case</t>
   </si>
   <si>
     <t>computer name is less than 15</t>
   </si>
   <si>
+    <t>mc-avset-iac-web</t>
+  </si>
+  <si>
+    <t>mcsaiacvmdiag</t>
+  </si>
+  <si>
+    <t>mc-udr-to-uat</t>
+  </si>
+  <si>
     <t>addressPrefix</t>
   </si>
   <si>
@@ -451,6 +511,18 @@
     <t>AzureGermanCloud</t>
   </si>
   <si>
+    <t>mc-nsg-iac-web</t>
+  </si>
+  <si>
+    <t>mc-nsg-iac-db</t>
+  </si>
+  <si>
+    <t>Block_RDP_Internet</t>
+  </si>
+  <si>
+    <t>Block_SSH_Internet</t>
+  </si>
+  <si>
     <t>Block_Internet_Outbound</t>
   </si>
   <si>
@@ -580,6 +652,9 @@
     <t>10.1.100.0/24</t>
   </si>
   <si>
+    <t>10.1.200.0/24</t>
+  </si>
+  <si>
     <t>10.1.0.0/16</t>
   </si>
   <si>
@@ -601,6 +676,12 @@
     <t>C:\kangxh\AzureLabs\Certs\mc-allenk-automation-spn.pem</t>
   </si>
   <si>
+    <t>mc-vnet-iac-uat</t>
+  </si>
+  <si>
+    <t>10.1.0.0/16, 10.2.0.0/16</t>
+  </si>
+  <si>
     <t>addressPrefixes</t>
   </si>
   <si>
@@ -613,10 +694,31 @@
     <t>10.3.0.0/16</t>
   </si>
   <si>
+    <t>10.3.1.0/24</t>
+  </si>
+  <si>
     <t>mc-vnet-iac-dev</t>
   </si>
   <si>
+    <t>mc-vnet-iac-prod</t>
+  </si>
+  <si>
+    <t>mc-nsg-iac-firewall</t>
+  </si>
+  <si>
+    <t>mc-udr-iac-dev</t>
+  </si>
+  <si>
     <t>rules</t>
+  </si>
+  <si>
+    <t>mc-udr-dev-to-uat</t>
+  </si>
+  <si>
+    <t>mc-udr-dev-to-prod</t>
+  </si>
+  <si>
+    <t>mc-udr-iac-prod</t>
   </si>
   <si>
     <t>web, app, sqldb</t>
@@ -696,6 +798,9 @@
     <t>secrets</t>
   </si>
   <si>
+    <t>secretValue</t>
+  </si>
+  <si>
     <t>vmpassword</t>
   </si>
   <si>
@@ -735,6 +840,9 @@
     <t>mc-kv-iac-dev</t>
   </si>
   <si>
+    <t>mc-kv-iac-uat</t>
+  </si>
+  <si>
     <t>d17b5bec-7daf-4ab0-b4e1-a17eef0fffa6</t>
   </si>
   <si>
@@ -744,6 +852,9 @@
     <t>0764cb57-add0-4f55-855d-3d700cc2d37b</t>
   </si>
   <si>
+    <t>allenk_automation</t>
+  </si>
+  <si>
     <t>objectid</t>
   </si>
   <si>
@@ -777,6 +888,15 @@
     <t>mc-sql-iac-server</t>
   </si>
   <si>
+    <t>mc-sql-iac-db-01</t>
+  </si>
+  <si>
+    <t>mc-sql-iac-db-02</t>
+  </si>
+  <si>
+    <t>mc-sql-iac-db-03</t>
+  </si>
+  <si>
     <t>MS1</t>
   </si>
   <si>
@@ -816,6 +936,9 @@
     <t>Allow Azure internal Access</t>
   </si>
   <si>
+    <t>mc-mysql-iac-db1</t>
+  </si>
+  <si>
     <t>KeyVaultRG</t>
   </si>
   <si>
@@ -831,6 +954,15 @@
     <t>mc-mysql-iac-svr1</t>
   </si>
   <si>
+    <t>mc-mysql-iac-svr2</t>
+  </si>
+  <si>
+    <t>mc-mysql-iac-db2</t>
+  </si>
+  <si>
+    <t>mc-mysql-iac-db3</t>
+  </si>
+  <si>
     <t>keyvaultRG</t>
   </si>
   <si>
@@ -855,6 +987,9 @@
     <t>secretDescription</t>
   </si>
   <si>
+    <t>8.8.8.8, 8.8.4.4</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -873,6 +1008,9 @@
     <t>descroption</t>
   </si>
   <si>
+    <t>mc-avset-iac-app</t>
+  </si>
+  <si>
     <t>dataDiskNumber</t>
   </si>
   <si>
@@ -889,111 +1027,6 @@
   </si>
   <si>
     <t>nextHop</t>
-  </si>
-  <si>
-    <t>mc-rg-fta-core</t>
-  </si>
-  <si>
-    <t>mc-rg-fta-vm</t>
-  </si>
-  <si>
-    <t>mc-kv-fta</t>
-  </si>
-  <si>
-    <t>mc-vnet-fta</t>
-  </si>
-  <si>
-    <t>servicefabric</t>
-  </si>
-  <si>
-    <t>demox</t>
-  </si>
-  <si>
-    <t>demoy</t>
-  </si>
-  <si>
-    <t>10.1.9.0/25</t>
-  </si>
-  <si>
-    <t>10.1.10.0/26</t>
-  </si>
-  <si>
-    <t>mc-nsg-fta-web</t>
-  </si>
-  <si>
-    <t>mc-nsg-fta-db</t>
-  </si>
-  <si>
-    <t>mc-udr-fta</t>
-  </si>
-  <si>
-    <t>mc-udr-fta-to-az</t>
-  </si>
-  <si>
-    <t>mc-udr-fta-to-msdn</t>
-  </si>
-  <si>
-    <t>to 10.0/16</t>
-  </si>
-  <si>
-    <t>to 10.3/16</t>
-  </si>
-  <si>
-    <t>mcvmftawin</t>
-  </si>
-  <si>
-    <t>mcvmftaoss</t>
-  </si>
-  <si>
-    <t>mc-avset-fta-win</t>
-  </si>
-  <si>
-    <t>mc-avset-fta-oss</t>
-  </si>
-  <si>
-    <t>mcsaftavmdiag</t>
-  </si>
-  <si>
-    <t>10.1.2.10</t>
-  </si>
-  <si>
-    <t>10.1.2.20</t>
-  </si>
-  <si>
-    <t>https://allenklab.blob.core.chinacloudapi.cn/vhds/Win2016Img.vhd</t>
-  </si>
-  <si>
-    <t>Allow_RDP_Internet</t>
-  </si>
-  <si>
-    <t>Allow_SSH_Internet</t>
-  </si>
-  <si>
-    <t>allenk_automation_win</t>
-  </si>
-  <si>
-    <t>allenk_automation_linux</t>
-  </si>
-  <si>
-    <t>mc-rg-fta-data</t>
-  </si>
-  <si>
-    <t>10.1.200.0/24</t>
-  </si>
-  <si>
-    <t>mc-mysql-fta-db1</t>
-  </si>
-  <si>
-    <t>mc-mysql-fta-db2</t>
-  </si>
-  <si>
-    <t>mc-sql-fta-db-01</t>
-  </si>
-  <si>
-    <t>mc-sql-fta-db-02</t>
-  </si>
-  <si>
-    <t>mc-sql-fta-db-03</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1184,6 +1217,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1200,7 +1246,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1265,6 +1311,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1593,7 +1640,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1606,148 +1653,148 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="20" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="20" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="20" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="11" customFormat="1"/>
     <row r="7" spans="1:3">
       <c r="A7" s="21" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="21" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="21" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="21" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="21" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="21" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="21" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="21" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="21" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="21" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="21" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C17" s="21"/>
     </row>
@@ -1759,17 +1806,17 @@
     <row r="19" spans="1:3" s="11" customFormat="1"/>
     <row r="20" spans="1:3">
       <c r="A20" s="22" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="22" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C21" s="22"/>
     </row>
@@ -1783,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1791,7 +1838,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1799,7 +1846,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1807,7 +1854,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1815,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1844,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD3BF6B-20D9-4585-8ED8-1463BB7E1471}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1867,57 +1914,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="30" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="31" t="s">
-        <v>305</v>
+        <v>128</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="E2" s="29">
         <v>5.7</v>
@@ -1926,39 +1973,39 @@
         <v>1</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="29" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>305</v>
+        <v>128</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="E3" s="29">
         <v>5.7</v>
@@ -1967,25 +2014,66 @@
         <v>1</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="I3" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="29" customFormat="1">
+      <c r="A4" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="J3" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>242</v>
+      <c r="E4" s="29">
+        <v>5.7</v>
+      </c>
+      <c r="F4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +2087,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2021,46 +2109,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="30" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="O1" s="30" t="s">
         <v>2</v>
@@ -2068,136 +2156,136 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="31" t="s">
-        <v>305</v>
+        <v>128</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" s="11" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>305</v>
+        <v>128</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="G3" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>310</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" s="11" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>305</v>
+        <v>128</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="O4" s="13"/>
     </row>
@@ -2211,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6043D2-FAF4-4CC6-BCA2-883A8FA8E76B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2230,10 +2318,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>3</v>
@@ -2242,25 +2330,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2268,67 +2356,67 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="13" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="25" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="13" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>6</v>
@@ -2336,22 +2424,22 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>7</v>
@@ -2359,16 +2447,16 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>8</v>
@@ -2380,7 +2468,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>9</v>
@@ -2392,7 +2480,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>10</v>
@@ -2404,7 +2492,7 @@
     <row r="9" spans="1:11">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>11</v>
@@ -2417,7 +2505,7 @@
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -2457,7 +2545,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2472,62 +2560,62 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1">
       <c r="A3" s="13" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1">
@@ -2544,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B2EED0-F8A3-4EAB-A0E2-E8FB8977E89E}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2559,7 +2647,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -2570,38 +2658,69 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>278</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>305</v>
+        <v>127</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="11" customFormat="1"/>
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="13" spans="1:3" s="11" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{1885BC1C-48C1-4423-ABA0-034E31BD2799}">
@@ -2618,7 +2737,7 @@
           <x14:formula1>
             <xm:f>'Properties List'!$D:$D</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B4</xm:sqref>
+          <xm:sqref>B2:B5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2628,10 +2747,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65437506-71EE-4623-BA3E-4F0661C58DED}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2655,66 +2774,66 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>228</v>
-      </c>
       <c r="G1" s="30" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="30" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="14" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="11"/>
@@ -2722,10 +2841,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="14" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="3"/>
@@ -2733,7 +2852,7 @@
     </row>
     <row r="5" spans="1:15" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="B5" s="7" t="b">
         <v>1</v>
@@ -2744,7 +2863,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="14" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="B6" s="7" t="b">
         <v>1</v>
@@ -2753,7 +2872,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="14" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="B7" s="7" t="b">
         <v>1</v>
@@ -2764,170 +2883,395 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="D8" s="14" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="86.4">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="D9" s="27" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:15" s="11" customFormat="1">
       <c r="C10" s="29"/>
       <c r="D10" s="27" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:15" s="29" customFormat="1">
       <c r="D11" s="27" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>303</v>
+        <v>25</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:15" s="11" customFormat="1">
       <c r="C12" s="29"/>
       <c r="D12" s="27" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:15">
       <c r="K13" s="14" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="K14" s="14" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="K15" s="30" t="s">
-        <v>279</v>
+      <c r="K15" s="14" t="s">
+        <v>259</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="K16" s="30" t="s">
-        <v>279</v>
+      <c r="K16" s="14" t="s">
+        <v>259</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="D25" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" s="11" customFormat="1">
+      <c r="C26" s="29"/>
+      <c r="D26" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="J26" s="33"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="K27" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="O27" s="30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2939,7 +3283,7 @@
           <x14:formula1>
             <xm:f>'Properties List'!$K$2:$K$3</xm:f>
           </x14:formula1>
-          <xm:sqref>L17 M1:M16 M18:M1048576</xm:sqref>
+          <xm:sqref>M26:M1048576 N25 L17:L21 M22:M24 M1:M16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2949,10 +3293,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66F6C2E-1DAB-4048-8E28-1F02F50FBD7B}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2967,30 +3311,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1">
       <c r="A2" s="30" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -2998,222 +3342,534 @@
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1">
       <c r="A3" s="14" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1">
       <c r="A6" s="14" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="29" customFormat="1">
       <c r="A7" s="30" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="11" customFormat="1">
       <c r="C8" s="14" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="11" customFormat="1">
       <c r="C9" s="14" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1">
-      <c r="C10" s="30" t="s">
-        <v>280</v>
+      <c r="C10" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" s="11" customFormat="1">
-      <c r="C11" s="30" t="s">
-        <v>280</v>
+      <c r="C11" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1">
-      <c r="C12" s="30" t="s">
-        <v>280</v>
+      <c r="C12" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1">
-      <c r="C13" s="30" t="s">
-        <v>280</v>
+      <c r="C13" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1">
-      <c r="C14" s="30" t="s">
-        <v>280</v>
+      <c r="C14" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1">
-      <c r="C15" s="30" t="s">
-        <v>280</v>
+      <c r="C15" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1">
-      <c r="C16" s="30" t="s">
-        <v>280</v>
+      <c r="C16" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" s="29" customFormat="1">
-      <c r="C17" s="30" t="s">
-        <v>280</v>
+    <row r="17" spans="1:6">
+      <c r="C17" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>282</v>
+        <v>13</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>284</v>
+        <v>23</v>
       </c>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" s="29" customFormat="1">
-      <c r="C18" s="30" t="s">
-        <v>280</v>
+    <row r="18" spans="1:6">
+      <c r="C18" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>283</v>
+        <v>14</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>285</v>
+        <v>24</v>
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="C19" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="C20" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+    <row r="22" spans="1:6">
+      <c r="A22" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="11" customFormat="1">
+      <c r="A23" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:6" s="11" customFormat="1">
+      <c r="A24" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" s="11" customFormat="1">
+      <c r="A27" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" s="29" customFormat="1">
+      <c r="A28" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:6" s="11" customFormat="1">
+      <c r="A43" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+    </row>
+    <row r="44" spans="1:6" s="11" customFormat="1">
+      <c r="A44" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" s="29" customFormat="1">
+      <c r="A48" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3223,10 +3879,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CB9A08-700A-4F46-9866-C465156BD9E9}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3252,63 +3908,63 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>140</v>
-      </c>
       <c r="I1" s="30" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="30" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -3328,521 +3984,748 @@
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3"/>
       <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:17" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>286</v>
+        <v>156</v>
       </c>
       <c r="C4" s="3"/>
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:17" s="29" customFormat="1">
       <c r="A5" s="30" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="C7" s="30" t="s">
-        <v>286</v>
+      <c r="C7" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>148</v>
+        <v>172</v>
+      </c>
+      <c r="I7" s="8">
+        <v>3389</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="K7" s="8">
         <v>200</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="C8" s="30" t="s">
-        <v>286</v>
+      <c r="C8" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="I8" s="8">
+        <v>22</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K8" s="8">
+        <v>210</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="C9" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K9" s="8">
+        <v>200</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="C10" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" s="8">
         <v>443</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J10" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="K10" s="8">
+        <v>100</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="C11" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="8">
-        <v>100</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="C9" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="D11" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" s="8">
         <v>80</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="J11" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="K11" s="8">
         <v>110</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" s="29" customFormat="1">
-      <c r="C10" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" s="8">
-        <v>3389</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="K10" s="8">
-        <v>120</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:17" s="29" customFormat="1">
-      <c r="C11" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="I11" s="8">
-        <v>22</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="K11" s="8">
-        <v>130</v>
-      </c>
       <c r="L11" s="8" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:17">
       <c r="N12" s="14" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="11" customFormat="1">
-      <c r="M13" s="29"/>
-      <c r="N13" s="30" t="s">
-        <v>286</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="N13" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="11" customFormat="1">
-      <c r="A14" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:17" s="11" customFormat="1">
       <c r="A15" s="30" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="M15" s="29"/>
+        <v>125</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
     </row>
     <row r="16" spans="1:17" s="11" customFormat="1">
       <c r="A16" s="30" t="s">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>287</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3"/>
       <c r="M16" s="29"/>
     </row>
-    <row r="17" spans="1:17" s="29" customFormat="1">
+    <row r="17" spans="1:17" s="11" customFormat="1">
       <c r="A17" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17" s="13"/>
+        <v>187</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="C18" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>266</v>
-      </c>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="1:17" s="29" customFormat="1">
+      <c r="A18" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:17">
       <c r="C19" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="D19" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I19" s="8">
+      <c r="G19" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="C20" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" s="8">
         <v>1433</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="K19" s="8">
+      <c r="J20" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="8">
         <v>100</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="C20" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="J20" s="8" t="s">
+      <c r="L20" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="C21" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="K20" s="8">
-        <v>200</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="C21" s="30" t="s">
-        <v>287</v>
-      </c>
       <c r="D21" s="8" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" s="8">
+        <v>200</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="C22" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="K21" s="8">
+      <c r="D22" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" s="8">
         <v>210</v>
       </c>
-      <c r="L21" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="C22" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="J22" s="8" t="s">
+      <c r="L22" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="C23" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="8">
+      <c r="D23" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" s="8">
         <v>200</v>
       </c>
-      <c r="L22" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="C23" s="14"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="L23" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="N24" s="14" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="N25" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="N26" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="N27" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="Q29" s="11"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="Q30" s="11"/>
+    </row>
+    <row r="31" spans="1:17" s="29" customFormat="1">
+      <c r="A31" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="O24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q24" s="14" t="s">
+      <c r="J32" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L32" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="N25" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>169</v>
+      <c r="M32" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="Q32" s="11"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I33" s="8">
+        <v>1433</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="K33" s="8">
+        <v>100</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M33" s="8"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="Q33" s="11"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="N34" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q34" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="N35" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I24 K16:K23 K1 I26:I1048576 K6:K13" xr:uid="{13621260-432B-4BFD-8DC6-F5BBC64B2C4E}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K30:K33 I25:I26 K17:K24 K6:K14 I34:I1048576 K1" xr:uid="{13621260-432B-4BFD-8DC6-F5BBC64B2C4E}">
       <formula1>100</formula1>
       <formula2>60000</formula2>
     </dataValidation>
@@ -3856,25 +4739,25 @@
           <x14:formula1>
             <xm:f>'Properties List'!$H:$H</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I5 L16:L23 I14:I17 L1 L6:L13</xm:sqref>
+          <xm:sqref>I2:I5 L17:L24 L30:L33 I15:I18 L1 I28:I31 L6:L14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E5C207E7-BC5D-472E-8727-115676681EFB}">
           <x14:formula1>
             <xm:f>'Properties List'!$I:$I</xm:f>
           </x14:formula1>
-          <xm:sqref>G26:G1048576 G1:G7 G12:G24</xm:sqref>
+          <xm:sqref>G12:G26 G1:G9 G28:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BEFAC9C7-CCC3-4A07-9616-0BB56399C24F}">
           <x14:formula1>
             <xm:f>'Properties List'!$G:$G</xm:f>
           </x14:formula1>
-          <xm:sqref>H22:H24 H26:H1048576 H1:H18</xm:sqref>
+          <xm:sqref>H1:H19 H23:H26 H28:H32 H34:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{095F0657-A849-4CFB-B574-A53B77C40DC5}">
           <x14:formula1>
             <xm:f>'Properties List'!$J:$J</xm:f>
           </x14:formula1>
-          <xm:sqref>J26:J1048576 J1:J24</xm:sqref>
+          <xm:sqref>J1:J26 J28:J1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3884,10 +4767,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71DACD7-923E-41EE-A168-21177D0CC449}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3895,7 +4778,7 @@
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
     <col min="2" max="2" width="24.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="21.21875" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" customWidth="1"/>
@@ -3908,66 +4791,66 @@
   <sheetData>
     <row r="1" spans="1:18" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>167</v>
-      </c>
       <c r="M1" s="6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="11" customFormat="1">
       <c r="A2" s="30" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -3982,24 +4865,24 @@
     </row>
     <row r="3" spans="1:18" s="11" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:18" s="29" customFormat="1">
       <c r="A5" s="30" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
@@ -4007,90 +4890,90 @@
     <row r="6" spans="1:18" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="12"/>
       <c r="C6" s="14" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="C7" s="14" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>291</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="C8" s="30" t="s">
-        <v>288</v>
+      <c r="C8" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>292</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="I9" s="14" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="I10" s="14" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4100,6 +4983,160 @@
     <row r="12" spans="1:18">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:18" s="29" customFormat="1">
+      <c r="A16" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4111,31 +5148,31 @@
           <x14:formula1>
             <xm:f>'Properties List'!$H:$H</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I5</xm:sqref>
+          <xm:sqref>I2:I5 I13:I16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8778F554-390E-41A4-B6A2-77DD1850456A}">
           <x14:formula1>
             <xm:f>'Properties List'!$I:$I</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G5</xm:sqref>
+          <xm:sqref>G13:G16 G2:G5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E1C16A05-8C53-43AA-B5B8-274F8A19BCC1}">
           <x14:formula1>
             <xm:f>'Properties List'!$G:$G</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H5</xm:sqref>
+          <xm:sqref>H13:H16 H2:H5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51577036-0944-49D6-93DE-252A4F45C4A3}">
           <x14:formula1>
             <xm:f>'Properties List'!$J:$J</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J5</xm:sqref>
+          <xm:sqref>J13:J16 J2:J5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1AA02A29-A6AC-4AF4-8413-CBF88FBC46D1}">
           <x14:formula1>
             <xm:f>RG!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B1048576</xm:sqref>
+          <xm:sqref>B6:B12 B17:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4147,16 +5184,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68429E91-ED41-4E27-A447-875D29420820}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" style="29" customWidth="1"/>
     <col min="6" max="6" width="22.109375" customWidth="1"/>
     <col min="7" max="7" width="22.109375" style="29" customWidth="1"/>
@@ -4177,7 +5214,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -4186,73 +5223,73 @@
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>129</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
-        <v>278</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -4261,47 +5298,47 @@
         <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G2" s="36">
-        <v>1</v>
-      </c>
-      <c r="H2" s="36">
+        <v>133</v>
+      </c>
+      <c r="G2" s="37">
+        <v>3</v>
+      </c>
+      <c r="H2" s="37">
         <v>31</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="8" t="s">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>298</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -4309,60 +5346,60 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>294</v>
+        <v>130</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
-        <v>278</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="13">
         <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G3" s="36">
-        <v>1</v>
-      </c>
-      <c r="H3" s="36">
+        <v>316</v>
+      </c>
+      <c r="G3" s="37">
+        <v>2</v>
+      </c>
+      <c r="H3" s="37">
         <v>127</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>277</v>
+        <v>134</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>299</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -4418,7 +5455,7 @@
           <x14:formula1>
             <xm:f>RG!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576 M1:M1048576</xm:sqref>
+          <xm:sqref>M1:M1048576 C1:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4431,7 +5468,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4446,58 +5483,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4505,26 +5542,26 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4532,45 +5569,45 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C4" s="7">
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D6" s="7">
         <v>80</v>
@@ -4582,16 +5619,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
@@ -4600,42 +5637,42 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="14.4" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
